--- a/news_data/2018_12.xlsx
+++ b/news_data/2018_12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,12 +22,69 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 수산분야 내년 2597억원 투자…크루즈 관광객 100만명 유치</t>
+  </si>
+  <si>
+    <t>제주엔젤렌트카, 2018 하반기 제주도 특별자치도에서 ‘우수관광사업체’로 선...</t>
+  </si>
+  <si>
+    <t>제주도관광협회 2018 제주 관광인 송년의 밤 행사 개최</t>
+  </si>
+  <si>
+    <t>신화련 금수산장 관광단지, 제주도 개발사업심의 '통과'</t>
+  </si>
+  <si>
+    <t>제주엔젤렌트카, '2018년도 하반기 제주도 우수관광사업체' 선정</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 자본검증 재개…27일 예정</t>
+  </si>
+  <si>
+    <t>제주도관광협회 앱쇼코리아 박람회 참가 체험관 운영</t>
+  </si>
+  <si>
+    <t>제주도관광협회 "투자개방형 병원 조건부 허가 결정 지지"</t>
+  </si>
+  <si>
+    <t>제주도, 중국 텐센트와 관광산업·전통시장 활성화 협약</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 앱쇼코리아 박람회 참가 체험관 운영</t>
+  </si>
+  <si>
+    <t>제주도 관광협회, 연말 김장김치 나눔활동</t>
+  </si>
+  <si>
+    <t>제주도-텐센트, 스마트 관광 협약</t>
+  </si>
+  <si>
+    <t>이색 겨울 풍경 만나는 제주도여행 체류형관광 인기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 종합쇼핑몰 '탐나오', 대한민국 인터넷 대상 수상</t>
+  </si>
+  <si>
+    <t>[기고] 저는 제주도 관광경찰입니다</t>
+  </si>
+  <si>
+    <t>진도군, 제주도 '사후면세점'서 문화관광 홍보</t>
+  </si>
+  <si>
+    <t>경북관광공사, 경북 소울스테이 제주도 체험 워크숍 개최</t>
+  </si>
+  <si>
+    <t>일본 ‘한의웰니스 관광단’, 제주도서 한의진료 등 체험</t>
+  </si>
+  <si>
+    <t>제주도, 외국인 의료관광객 한정 국내 첫 영리병원 개원 허가</t>
+  </si>
+  <si>
+    <t>서귀포 치유의 숲, 제주도 최우수 공영관광지 선정</t>
+  </si>
+  <si>
     <t>제주도관광협회 탐나오, 대한민국 인터넷대상 수상</t>
   </si>
   <si>
-    <t>서귀포 치유의 숲, 제주도 최우수 공영관광지 선정</t>
-  </si>
-  <si>
     <t>12월 제주도 가볼 만한 곳 '브릭캠퍼스', 이색 체험 즐길 수 있는 실내 관광지...</t>
   </si>
   <si>
@@ -43,40 +100,94 @@
     <t>제주도 여행플랫폼 '제주지니' 인기비결… 서비스에 관광객 반응 신속 반영</t>
   </si>
   <si>
+    <t>진도군, 제주도 '사후면세점'서 농수특산품 판매·문화관광 홍보</t>
+  </si>
+  <si>
     <t>제주도관광협회 '탐나오', 웹 이노베이션 대상 최우수상 수상</t>
   </si>
   <si>
-    <t>진도군, 제주도 '사후면세점'서 농수특산품 판매·문화관광 홍보</t>
-  </si>
-  <si>
     <t>제주도관광협회 '탐나오', 대한민국 인터넷대상 특별상 수상</t>
   </si>
   <si>
-    <t>제주도관광협회 탐나오, 대한민국 인터넷대상 수상 &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 탐나오, 대한민국 인터넷대상 수상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제주도관광협회 탐나오, 대한민국 인터넷대상 수상 기자명 고영진 기자 입력 2018.12.03 16:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 김영진)는 중소기업중앙회에서 과학기술정보통신부 주최로 열린 제13회 대한민국 인터넷 대상 시상식에서 현재 운영 중인 제주여행 종합쇼핑몰 '탐나오'가 사회진흥부문 ICT연합회장상을 수상했다고 3일 밝혔다.이번 수상은 전문가를 통한 서류, 면접 등 모두 3차에 걸쳐 선정됐으며, 인터넷 서비스로 사회 문화발전 및 공익 증진에 공헌한 단체에 수여하는 특별상이다.탐나오는 제주도내 관광사업체의 온라인 홍보와 판매를 지원하기 위해 제주특별자치도의 지원을 받아 운영 중인 온라인 서비스로 입점업체 1100여곳과 함께 회원 수 5만명을 돌파하며 성장 중이다. 고영진 기자 kyj@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>서귀포 치유의 숲, 제주도 최우수 공영관광지 선정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:29 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 서귀포 치유의 숲, 제주도 최우수 공영관광지 선정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 서귀포 치유의 숲, 제주도 최우수 공영관광지 선정 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.12.05 17:27 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 공영관광지 운영평가위원회 심의 결과 서귀포시 소재 '치유의 숲'이 최우수 공영관관지로 선정됐다고 5일 밝혔다. 이번 평가는 공영관광지 32개소에 대해 지난 5월부터 11월까지 제주도관광협회에 위탁해 평가를 진행됐다. 우수 공영관광지에는 기당미술관과 서귀포천문과학문화관, 장려에는 붉은오름 자연휴양림과 제주돌문화공원, 민속자연사박물관이 각각 선정됐다.공영관광지 운영평가에 참여했던 위원들은 이번 평가를 통해 지난해와 비교해 관광지 편의시설 확충과 근무자 친절도 분야에서 크게 개선된 모습을 보였다고 밝혔다.또, 지난해 운영평가 지적사항에 대한 개선은 물론, 자체 친절교육 실시, SNS 등 스마트 홍보강화, 관광지 정비 등 관광지 만족도 제고를 위한 각 관광지의 적극적인 의지를 엿볼 수 있었다고 평가했다.양기철 제주도 관광국장은 "이번 평가결과를 공영관광지에 통보해 우수 관광지에 인센티브를 제공하고, 이를 모범 사례로 삼아 서비스 개선방안 등을 마련해 품격 있는 공영관광지의 면모를 갖출 수 있도록 노력해나가겠다"고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 중문관광단지 오션힐스 아파트형 도시형생활주택, 상가 분양 &lt; 생활문화 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 오션힐스 아파트형 도시형생활주택, 상가 분양 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 생활문화 제주도 중문관광단지 오션힐스 아파트형 도시형생활주택, 상가 분양 기자명 송영두 기자 입력 2018.12.05 15:41 수정 2018.12.05 15:42 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도 서귀포시 대포동 일대에 중문 오션힐스 아파트형 도시형생활주택이 분양중에 있다. 제주도 중문 오션힐즈는 5층 한 개동 56세대로 건축되어 있다. 제주 중문 오션힐스 아파트형 도시형생활주택은 이미 준공이 나서 즉시 입주가 가능하다. 중문 오션힐스는 중문관광단지 중심에 위치해 있는데 중문관광단지는 연간 700만명 이상의 관광객이 드나드는 곳이다. 신라호텔, 롯데호텔, 하얏트리젠시호텔, 켄싱턴 호텔, 중문cc 등 종사자들만 아니라 관광객들의 임대 수요도 흡수할 수 있다. 제주 중문 오션힐스 아파트형 도시형생활주택은 하나로마트, 중문 오일장, 중문cc등이 차량 5분거리에 있고 초·중학교를 도보 5분 거리에서 통학할 수 있다. 제주국제학교 또한 차량 20분대 거리에서 통학이 가능하다. 제주 중문 오션힐스 아파트형 도시형생활주택은 보안을 위해서 CCTV 46대를 설치했고 강화된 내진설계 시스템과 태풍 피해 방지 배수시스템을 따로 적용했다. 제주 중문 오션힐스 아파트형 도시형생활주택은 오피스텔과 다르게 전용률이 굉장히 높고 한라산과 마라도 조망권이 확보된 옥상 공원 또한 있다. 제주도는 신화역사공원, 헬스케어타운, 서귀포 관광미항, 서귀포 신공항, 첨단과학기술단지등개발이 추진이 되고 있거나 예정되어 있다. 제주 중문 오션힐스 아파트형 도시형생활주택은 2룸형의 합리적인 설계와 최신 시스템을 적용했다. 제주도 중문 관광단지는 숙박시설, 음식점이 가장 밀집되어 있는 곳으로 제주 중문 오션힐스 도시형생활주택 역시 편리한 생활을 누릴 수 있을 전망이다. 제주 중문 오션힐스 상가 또한 분양을 진행하고 있어서 대표번호로 미리 문의를 주는 것이 좋다. 제주 중문 오션힐스는 현지에 분양 사무실이 있으며 사전 예약 하면 원활한 관람이 가능하다. 저작권자 © 금강일보 무단전재 및 재배포 금지 송영두 기자 admin@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 [속보]4호선 지하철 시위, 4일 출근길 지연 고명환 와이프 임지은 프로필은? 4일 토스행운퀴즈 '모니모' 정답 공개 시사 지역 문화·연예 01 [속보]4호선 지하철 시위, 4일 출근길 지연 02 유승민, 보수 차기 대권주자 1위... 범진보 이재명 독주[리처치뷰 여론조사] 03 4일 토스행운퀴즈 '모니모' 정답 공개 04 '러시아 동원령' 안현수는? 05 대전·세종 집값 하락폭 전국 1·2위 다투는 중 06 충북 옥천에 첫 ‘e편한세상 퍼스트원’ 분양 07 여수 해상서 기름유출 사건 발생 08 [오늘날씨] 개천절 흐리고 비, 내일까지 수도권 최대 100mm 09 대전상의-민주당 ‘지역경제 활성화’ 간담회 10 이자 부담 느는데 중도상환도 어렵다 11 “고물가에 후원금도 줄었는데…” 12 공공요금 ‘더블인상’...시름하는 충청경제 13 군가 '멸공의 횃불' 왜 가사 바뀌었나? 14 국민 절반 ‘육사 충남 이전’ 찬성 전체보기 01 [동정] 보령시장 02 보령시, 제22회 무창포 신비의 바닷길 축제 7일부터 4일간 열려 03 금산군, 제40회 금산인삼축제 인삼왕 선발 04 제40회 금산인삼축제 47만 명 방문 ··· 흥행 예감 05 괴산군, 유니세프와 아동친화도시 조성 업무협약 체결 06 증평군, 공약이행평가단 위촉 및 회의 개최 07 당진시 ‘달리는 신문고’ 상담 참여자 모집 08 당진시의회 산업건설위원회, 농기센터 활성화 위한 현장 방문 09 [동정] 당진시장 10 [동정] 서산시장 11 [백제문화제 이모저모] 발 디딜 틈 없이 ‘문전성시’ 12 아산시, 배방 지역 공공기여 협약 체결 13 부여군장애인종합복지관 찾은 ‘사랑의짜장차’ 14 국립부여박물관, 특별전 ‘백제 기술, 흙에 담다’ 개최 전체보기 01 고명환 와이프 임지은 프로필은? 02 이천수 와이프 심하은 누구? 03 엄정화 올케 윤혜진, 사이좋은 모습 공개 04 송가인 최애 가수는 바이브 05 박수홍, 봉사활동 모습 공개 06 '조이 언급' 크러쉬 당황시킨 비비 07 구단주 허재의 '살벌한 욕설' 이유 08 김용건 예비며느리 황보라, 차현우와 혼인신고 완료 09 '신혼' 손예진, 현빈과 달달한 모습 공개 10 임영웅과 데이트하는 영상? ‘사랑해 진짜’ 11 박민영 재력가 열애설부터 친언니 사외이사 선임까지 12 '수리남' 김민귀 "광신도 연기하려..." 13 설민석 2년만 방송 복귀, 대중들 반응은? 14 구준엽♥서희원, “화장실 갈 때도 안아서 데려가” 전체보기 가장 빠른 충청뉴스 보령시, 제22회 무창포 신비의 바닷길 축제 7일부터 4일간 열려 보령시 무창포해수욕장에서 오는 7일부터 10일까지 4일간 ‘제22회 무창포 신비의 바닷길 축제’가 열린다.시가 주최하고 보령축제관광재단이 주관하는 이번 축제는 바닷길이 열리는 무창... [동정] 보령시장 괴산군, 유니세프와 아동친화도시 조성 업무협약 체결 증평군, 공약이행평가단 위촉 및 회의 개최 스포츠 뉴스 천안시, 충남체육대회 종합 우승 차지 대전도시공사 펜싱팀 하태규 ‘금빛 찌르기’ [포토] 설동호 교육감 전국체전 출전 선수단 격려 ‘현대가(家)’ 리디아 고, 약혼자가 걱정해... [사진뉴스] LX 지역본부, 충남체육회에 전국체전 기부금 전달 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 中 관광객 마케팅 방안 모색 한중 세미나 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:29 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 中 관광객 마케팅 방안 모색 한중 세미나 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 中 관광객 마케팅 방안 모색 한중 세미나 개최 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.12.05 17:05 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 7일 오후2시 라마다프라자 호텔에서 중국 관광트렌드 변화와 온라인 마케팅 전략 수립을 위한 한중 국제세미나를 개최한다.이번 세미나에는 중국 아웃바운드 시장의 미래 환경변화를 예측하고 중국 관광트렌드 변화에 맞춰 온라인 마케팅, 바이럴 마케팅 등 차별화된 마케팅 전략 수립을 위해 씨트립(Ctrip), 투니우(途牛)，마펑워(马蜂窝) 등 중국대표 여행사 마케팅 전문가와 한국 문화관광연구원 전문가들이 참석한다. 모여 논의의 장을 마련할 예정이다. 세미나에서는 중국 개별관광(FIT)시장을 겨냥한 매력적인 개별관광 목적지로서 제주도의 포지셔닝 리브랜딩(Rebranding) 방안이 모색된다. 제주도 관계자는 "이번 세미나를 통해 중국 관광업계의 경험과 관점을 청취하고, 중국 온라인 마케팅 특징, 활용사례 등 다양한 내용을 검토해 제주의 대중국 온라인 마케팅에 활용할 계획"이라고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>경상북도관광공사 경북 대표 힐링프로그램인 `소울스테이` 역량강화 워크숍 제주도일원에서 가져 - 매일신문 2022-10-04 (화) 지면보기 기사제보 로그인 회원가입 최신기사 오피니언 정치 경제 사회 국제 문화 스포츠 연예 라이프 포토·영상 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 경상북도관광공사 경북 대표 힐링프로그램인 '소울스테이' 역량강화 워크숍 제주도일원에서 가져 이채수 기자 cslee@msnet.co.kr 매일신문 입력 2018-12-05 15:05:45 수정 2018-12-05 15:05:25 0 가 가 페이스북 트위터 카카오스토리 밴드 네이버블로그 카카오톡 라인 URL복사 천주교 순례길 중 김대건길, 이시돌길 등 주요 순례길 답사 스탬프 투어 등 관광객 대상 프로그램 체험. 경북관광공사는 지난 28일부터 3일간 제주도에서 경북대표 관광힐링프로그램인 '소울스테이' 역량강화 워크숍을 가졌다. 사진은 제주 선샤인호텔에서 열린 워크숍 후 단체사진. 경상북도관광공사는 경북 대표 힐링프로그램인 '소울스테이'의 발전을 위한 역량강화 워크숍을 제주도 일원에서 가졌다고 3일 밝혔다.이번 워크숍(11월28~30일)은 소울스테이 실무자의 역량강화와 프로그램 발전을 위한 천주교 관련 관광콘텐츠 답사를 통해 프로그램 질적 향상을 도모하기 위해 추진됐다.경북관광공사 소울스테이 사업단 관계자와 기관별 실무자들은 관광객 대상으로 마련된 천주교 힐링 프로그램을 직접 체험하고 신규 프로그램 발굴을 위한 아이디어를 논의했다.또 사업 활성화를 위한 간담회를 개최하고 기관별 프로그램 점검과 소울스테이의 전국적인 인지도를 높이기 위한 홍보방안 등 내년도 추진 사업을 논의했다.이와 함께 제주도에서 관광객 유치를 위해 추진하고 있는 천주교 순례길 중 김대건길, 이시돌길 등 주요 순례길을 답사하고 스탬프 투어 등 관광객 대상 프로그램을 체험하는 시간을 가졌다. 경상북도관광공사 이재춘 사장대행은 "소울스테이는 경북의 대표 힐링스테이로 이번 워크숍을 통해 기관별 실무자의 역량 강화는 물론 새로운 프로그램들이 개발돼 힐링 수요 관광객에게 큰 만족을 줄 것으로 기대한다"며 "소울스테이의 활성화를 통해 경북의 힐링콘텐츠를 다양화하는데 적극적인 노력과 지원을 아끼지 않겠다"고 말했다.소울스테이는 천주교 휴양시설인 피정의집, 수도원, 복지시설 등에서 명상과 기도, 봉사활동 등의 프로그램을 일반인들도 쉽게 체험할 수 있도록 만든 맞춤형 테마관광 상품이다. 현재 경북 내 14개 기관이 시행하고 있는 대표 힐링스테이 프로그램이다. 경북관광공사는 지난 28일부터 3일간 제주도에서 경북대표 관광힐링프로그램인 '소울스테이' 역량강화 워크숍을 가졌다. 사진은 제주 이시돌길 '새미은총의동산'에서 워크숍 참가자들이 단체사진을 찍고 있다. 네이버TV구독 + 유튜브구독 + 최신 기사 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 많이 본 뉴스 일간 주간 월간 [단독] 대구시 '투자유치 2개월 내 모든 걸림돌 제거' 약속 지켰다 [대구 시월] 항쟁 휘말려 영천 황보가 멸문지화…고통받은 故 황보희 씨 홍준표, 4년 전 이준석 "'나는 왜 정치하나' 아침마다 5번 복창" 발언 두고 "조롱" 조원진 우리공화당 대표 "이준석 내년 3월 보수 신당 창당 가시화" 의무 사라져도 계속 마스크 쓰는 대구시민들… "눈치도 보이고 습관 됐어요" 분위기 반전 간절한 토트넘…손흥민 UCL 첫 골 터질까 김건희 추정 인물 운전 '윤석열차' 만화 뭐길래? 경기도지사상 수상해 전시 [이웃사랑] 남편 폭력 시달려 이혼…홀로 아들 키우다 추락사고로 만신창이 '매천시장 이전' 洪시장 공약 '주춤'…시의회, 용역비 전액 삭감 文, 감사원 서면조사 통보에 "대단히 무례한 짓"…감사원 "노태우·YS도 받아"더보기 무단 결근·실종 신고된 영천시 공무원, 강원도 삼척시에서 숨진 채 발견 [단독] 이철우 지사 "군위 대구 편입 시급…의석수 확보 영향 없어" 대구 북구 칠성동 홈플러스 철거 재개에…주민들 민원 폭발 한동훈 퇴근길 한달간 미행해온 유튜버 일당…스토킹 혐의 고소당했다 감사원 文 서면조사 통보 소식에 박지원 "尹정부 칼날 기어이" [홍형식의 새론새평] 허니문 끝나 가는 윤석열 대통령 지지율 울릉공항 7,300억 들여 짓지만…취항할 수 있는 국내 항공사 ‘제로’ 멸공의 횃불→승리의 횃불, 국군의날 기념식 바뀐 표기 눈길 일본 여행 규제 풀리자…항공료 22만→72만원 세 배 이상 급등 대구 대표 가을 축제 한꺼번에 열린다…‘2022 판타지아대구페스티벌’더보기 12호 태풍 무이파 발생 수순 "서해·수도권 경로 가능성" 40대 남자 배우 A씨, 마약 투약 혐의 강남구 논현동 집에서 긴급체포 대전 현대 프리미엄아울렛 화재…지하주차장서 전기차 폭발 추정 호텔수성 또 소송?…이번엔 주차장 갈등, 수성구청 "소송 불사" 전국 어디든 '1시간 50분대'…성주군, 6방향 사통팔달 도시로 무시냐 침묵이냐…낙선운동 시사에도 TK 정치권 입다문 이유는 태풍 '힌남노' 폭우, 주택 앞마당에 묻어둔 현금 항아리 깨져 태풍 무이파 중국행 가능성↑ '므르복 또는 난마돌 발생시 한반도행 전망' "30cm 처마 값으로 45억원 내놔라니"…두류동 재개발 '공중 알박기' 논란 대구 수성못 주변 주상복합 취소 소송, 수성구청 최종 승소더보기 이슈&amp;뉴스 이재명 "문재인 대통령님 서면조사 통보, 유신 공포정치 연상" 與, 김건희 논문 서명 동일필적 의혹에 "민형배 또 헛발질" "딸 간수나 잘하라" 헤어진 여친 넘어 모친까지 스토킹한 20대 현관문에 빨간 스프레이 낙서…공포심 느낀 주민 결국 이사 푸틴 동원령에 20대 남성 극단 선택 "영혼에 살인죄 씌울 수 없다" 댓글 많은 뉴스 9 감사원 文 서면조사 통보 소식에 박지원 "尹정부 칼날 기어이" 7 멸공의 횃불→승리의 횃불, 국군의날 기념식 바뀐 표기 눈길 6 국군의날 기념식 영상에 중국 인민해방군 장갑차가 왜? 6 [속보] 권성동, '文 격노'에 "전직 대통령 초법적 존재 아냐" 6 홍준표, 유승민 겨냥 "내부 흔드는 세력"…당내 안정 최우선 행보 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 회사소개 광고안내 구독신청 고충처리인운영규정 청소년보호정책 개인정보처리방침 사업제휴 편집윤리규정 윤리자율규제지침 윤리실천요강 본사 : 대구광역시 중구 서성로20 (계산 2가 71번지) 매일신문사 (우 41933) : TEL : (053) 255-5001~7 경북본사 : 경북 안동시 풍천면 수호로 63, 3층(우 36759) : TEL : (054) 855-1700 서울지사 : 서울특별시 중구 세종대로 124 (태평로 1가 25) 한국프레스센터 1801호 (우 04520) : TEL(02) 733-0755~6 인터넷신문등록번호 : 대구,아00201 등록일자 : 2016.11.28 발행인 : 정창룡, 편집인 : 정창룡 Copyright ⓒ MAEIL, All right reserved 댓글 삭제 Close 댓글삭제</t>
-  </si>
-  <si>
-    <t>제주도 여행플랫폼 '제주지니' 인기비결… 서비스에 관광객 반응 신속 반영 - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 정치 전국 국제 제주도 여행플랫폼 '제주지니' 인기비결… 서비스에 관광객 반응 신속 반영 발행일 : 2018-12-02 12:00 지면 : 2018-12-03 24면 제주은행의 제주도 여행 플랫폼 '제주지니'가 제주도 현지 주민이 직접 추천한 맛집을 소개하는 등 차별화된 콘텐츠와 사용자 반응을 서비스에 신속하게 반영, 관광객으로부터 큰 호응을 얻고 있다. 제주은행은 지난 7월 6일 제주지니를 운영한 이후 지난 달 22일 기준 누적 다운로드수 77만을 달성했다. '제주도민 추천 맛집 서비스'에 이어 중국어 서비스·핸즈프리서비스 등 관광객 입장을 고려한 콘텐츠를 선보이면서 관심을 끌고 있다. 제주은행은 지난달 1일 제주지니에 중국어 서비스를 오픈했다. 지난 20일엔 여행객이 무거운 짐을 들고 다니지 않고, 원하는 목적지까지 안전하게 운반해 주는 핸즈프리(짐 옮김) 서비스도 선보여 제주 여행길을 한결 가볍게 해 주고 있다. 추가로 맛집 대기시간 확인·예약서비스, 엑티비티 예약 서비스를 선보일 예정이다. 제주지니가 주목받는 이유는 콘텐츠 차별화에만 있지 않다. 제주지니는 웨이브(WAVE) 1, 2, 3이란 단계별 구축 프로세스 내에서 스크럼 개발 방법론을 활용해 서비스를 점진적으로 구축하고 있다. 현업 담당자, UI·UX디자인 업체, 개발업체가 스크럼 팀을 구성해 웨이브별 핵심 서비스를 단계적으로 출시하고, 지속해서 서비스 개선 작업을 진행하고 있다. 현재 웨이브 3단계에선 맛집대기, 엑티비티 예약 서비스를 구축하고 있다. 기존 구축 프로젝트 대부분은 전체 서비스를 한 단계로 묶는 폭포수 개발 방법론을 선택, 진행해왔다. 금융권은 이로 인해 프로젝트 시작 시점과 종료 시점 간에 시간차가 벌어지는 탓에 서비스 출시 시점에 고객의 요구 변화에 발빠르게 대응하지 못하는 단점을 안고 있었다. 서비스를 빠르게 출시하고 사용자 반응을 서비스에 지속 반영하는 데 한계가 있었던 것이다. 디지털에이전시 유플리트 김병규 차장은 “제주지니 프로젝트를 진행하면서 스크럼 개발 방법론을 통한 활발한 의견교환 덕분에 불필요한 재작업을 최소화하고 핵심업무에 집중하는 등 프로젝트를 보다 효율적으로 진행할 수 있었다”고 말했다. 제주은행 측은 “구축 업체와 애자일한 협업을 바탕으로 한 프로젝트 수행이 서비스 경쟁력을 높이는 좋은 토대가 된다는 점을 확인했다”면서 “스크럼방법론 정교화를 통해 보다 성공적인 서비스를 선보인다”고 밝혔다. 안수민기자 smahn@etnews.com 이번 주 HOT 콘텐츠 사이버위협과 랜섬웨어, 공격 당하기 전에먼저 찾아내서 대응하세요- 특급 위기관리 방안 전수 하나의 플랫폼에서 모든 협업이 다 되는 Zoom BRAND NEWSROOM 시큐어링크고준용 시큐어링크 대표, 과학기술정보통신부장관상 수상시큐어링크(대표 고준용)는 고준용 대표가 지난 13일 열린 제 11회 정보보호의 날 기념식에서 과학기술정보통신부장관상을 수상했다고 27일 밝혔다. 여의시스템여의시스템, 씨게이트와 GOLD PARTNER 계약 체결스마트팩토리 플랫폼 리딩기업, ㈜여의시스템은 세계적 저장 장치 제조사 씨게이트(SEAGATE)와 Gold Partner 계약을 체결했다. 버넥트버넥트, 국내 유일 G20 우수 인프라기술 사례로 선정버넥트(대표 하태진)는 국내에서 유일하게 G20 우수 인프라기술 사례로 선정됐다고 9일 밝혔다. 한국무라타전자한국무라타전자, 국내 최대 전자·IT 전시회 '한국전자전' 참가한국무라타전자(대표이사 요시오카 켄이치)는 오는 10월 4일부터 7일까지 개최되는 국내 최대 전자·IT 전시회인 한국전자전(KES 2022)에 참가한다고 13일 밝혔다. 유니온커뮤니티유니온커뮤니티, 英 최대 보안 전시회 ‘IFSEC2022’ 참가유니온커뮤니티(대표이사 신요식)는 오는 19일까지 영국, 런던에서 열리는 유럽 최대 보안 전시회 'IFSEC INTERNATIONAL 2022'에 참가한다고 18일 밝혔다. 마이스터즈천홍준 마이스터즈 대표, "대기업·중소기업과 소비자까지, 모두의 ‘ESG’ 함께 하겠다"'4차산업'이라는 이름 아래 산업계가 탄력적으로 변화하고 있다. 특히 상품이나 서비스는 물론 조직구조나 인력활용 면에서도 상당한 유연성을 보인다. 많이 본 뉴스 1 "날 보는 건가"...'눈 달린' 자율주행차 실험 결과는 2 사장단 소집한 구광모 LG회장 "미래고객 방점" 3 "20년만에 초근접"...NASA가 공개한 목성의 달 '유로파' 모습은 4 르노코리아차, 1일부터 'XM3 하이브리드' 사전 계약 시작 5 "파란색 젤리?"…美 해저 탐사선에 포착된 정체불명 생명체 BIZPLUS 업무의 유연성과 생산성을 위한 클라우드 보안은 필수 한국인프라, "AI 최강자 NVIDIA H100 GPU 소개" Revit MEP 실무 뜯어먹기를 위한 A to Z 기존 비정형 데이터 모델링 방식의 문제점과 ThanoSQL의 해결방법 "하나의 플랫폼에서 모든 협업이 다 되는 Zoom" 10월 5일 생방송 "아크로니스 실전 웨비나 - 랜섬웨어 대응 모의훈련 편" 10월 5일 생방송 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
-  </si>
-  <si>
-    <t>제주도관광협회 ‘탐나오’, 웹 이노베이션 대상 최우수상 수상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회 ‘탐나오’, 웹 이노베이션 대상 최우수상 수상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 ‘탐나오’, 웹 이노베이션 대상 최우수상 수상 문유미 기자 승인 2018.12.13 14:53 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 김영진)가 운영하는 제주여행 종합쇼핑몰 ‘탐나오’는 13일 서울 롯데호텔월드에서 열린 ‘제15회 대한민국 웹 이노베이션 대상 시상식’에서 여행쇼핑물 분야 최우수상을 수상했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>중도일보 - 진도군, 제주도 '사후면세점'서 농수특산품 판매·문화관광 홍보 진도군, 제주도 '사후면세점'서 농수특산품 판매·문화관광 홍보 //=$stickSnsGg?&gt; 최종 편집일 : 2022-10-04 홈 기획연재 중도TV 정치행정 경제과학 사회교육 문화 오피니언 스포츠 전국 비주얼 사람들 대학입시 로그인 회원가입 뉴스 전체기사 기획/연재 운세 기획/연재 더보기 스토리가 있는 대전·충남 대학 공간 대전의 아름다운 건축물 얼마나 아니? 대전 Y-zone 프로젝트 여기 찜했슈 대전 더하기 뉴스바나나 거기 그곳 [유난한 식탁] 저는 채식주의자입니다 REE-PORT:친환경 보고서 트렌드일기: MZ읽기 골목시장을 걷다 문화 in, 문화 人 2022 리포트 충청지대 뉴스포커스 여론을 리서치하다 중도초대석 검색에 없는 대전·충남 파워 충청, 판을 바꾸자 도시재생 리포트 2021 지속가능한 문화도시 프로젝트 세종에 살어리랏다 [오류동사진관]다시 보는 충청의 역사 미제사건, 그날의 기억속으로 데이터 in 충청 기획 신천식의 이슈토론 창간70주년 기획 판소리의 원류는 충청도다 운세 오늘의 운세 오늘의 별자리 생년월일 운세 중도TV 전체기사 기획 시·도정소식 현장리포트 신천식의 이슈토론 박하림의 골프스튜디오 골린이 100일만에 필드보내기 정치/행정 6·1 지방선거 대전 충남/내포 지방의회 국회/정당 국정/외교 세종 썰: 솔깃한 이야기 2022 대선 대전의 2030 선대위 누가 있나 경제/과학 더보기 지역경제 건설/부동산 금융/증권 유통/쇼핑 기업/CEO 자동차 취업/창업 대전정부청사 대덕특구 공사·공단 IT/과학 아파트Info 로또 4차 산업 사회/교육 사건/사고 법원/검찰 교육/시험 노동/노사 환경/교통 미담 날씨 국방/안보 이슈&amp;화제 건강/의료 문화 더보기 공연/전시 영화/비디오 문화/출판 여성/생활 건강/의료 여행/축제 문화 일반 사람들 인터뷰 새인물 인사 동정 알림 부고 뉴스 社告 결혼 내방 다문화 신문 사회복지신문 실버라이프 바로잡습니다 오피니언 더보기 사설 독자 칼럼 독자위원회 &amp; 독자위원 칼럼 사외칼럼 세상읽기 여론광장 교단만필 시사오디세이 세상보기 세상속으로 춘하추동 오늘과내일 풍경소리 프리즘 중도시평 편집국에서 염홍철의 아침단상 우난순의 식탐 사이언스칼럼 월요논단 전문인칼럼 목요광장 홍석환의 3분 경영 문화人 칼럼 김선생의 시네레터 D-MZ:청년칼럼 홍키호테 세창밀시 문예공론 장상현의 재미있는 고사성어 알기쉬운 금융상식 문학박사 김우영의 문화산책 스포츠 더보기 한화이글스 축구 농구 배구 골프 생활체육 야구종합/메이저리그 스포츠종합 엘리트체육 대전하나시티즌 바둑 드림인대전 전국 더보기 수도권 부산/영남 충북 광주/호남 강원 천안시 아산시 공주시 보령시 서산시 당진시 논산시 계룡시 금산군 부여군 서천군 청양군 홍성군 예산군 태안군 비주얼 카드뉴스 포토 인포그래픽 대학입시 정시 수시 전국 광주/호남 진도군, 제주도 '사후면세점'서 농수특산품 판매·문화관광 홍보 승인 2018-12-03 07:33 이재평 기자 전남 진도군이 외국인 관광객을 유치하기 위해 '사후면세점'에 진도아리랑 청정 농수산물 판매와 문화관광 홍보를 적극 추진한다.진도군에 따르면 사후면세점은 중국, 베트남, 태국 등 외국인 관광객을 대상으로 하며, 제주국제공항 인근에 '해태 김 박물관'을 최근 개장했다.이를 위해 군은 해외 여행객을 전문으로 하는 여행사 4개소와 업무협약을 지난달 30일 체결하고 청정해역에서 생산된 진도 김, 진도 미역, 진도 울금 등 진도 농수산물을 판매하고 있다.특히 사후면세점 내부에 다양한 홍보 부스를 마련, 진도 신비의 바닷길 축제, 진도개 페스티벌 등 진도군 주요 축제와 운림산방, 세방낙조 등 주요 관광지 등도 함께 홍보하고 있다.사후 면세점인 '해태 김 박물관'은 1386㎡ 면적에 진도 농수산물 판매 매장과 함께 수산물의 우수성을 체험하기 위한 체험 공간 등으로 구성돼 있어 외국인 관광객들로부터 '호평'을 받고 있다.진도군 경제마케팅과 관계자는 "자치단체에서 사후 면세점에 지역의 농수산물을 집중적으로 판매하고 축제와 주요 관광지 등을 홍보하는 사례는 이번이 처음"이라고 말했다.그리고 "2019년 진도대명해양리조트 개장을 앞두고 다양한 관광 상품을 개발하는 동시에 지역의 농수산물을 홍보하고 외국인 관광객을 유치하는 데 힘쓰겠다"고 밝혔다.한편 외국인 관광객이 사후면세점에서 3만원 이상을 구매한 후 출국시 영수증을 세금환급창구에 제시하면 부가가치세와 개별소비세를 돌려받을 수 있다. 면제 한도는 제한이 없다.진도=이재평 기자 ljp3455@ 중도일보(www.joongdo.co.kr), 무단전재 및 수집, 재배포 금지 기자의 다른기사 보기 랭킹뉴스 대전하나시티즌 추가시간 광주에 동점골 2-2무승부 이민성 감독, 팬들에게 죄송한 마음 전남전 최선을 다할 것 이민성 감독, 광주 같읕 팀을 이기지 못하면 희망이 없다 대전 펜싱 전국체전 사전 경기에서 금2개, 동1개로 좋은 출발 제29회 대전광역시장기 생활체육 야구대회 2일 갑천야구장서 개막 [문학박사 김우영의 문화산책] Dream Kareiski 머나 먼 땅 정치권 강타한 '소상공인시장진흥공단' 이전… "거센 반발 속 신중론도?" 제68회 백제문화제 개막…백제로의 시간여행 떠나는 관광객들 대전 UCLG 총회 일주일 앞으로… 국내외 524개 도시 5634명 등록 성공개최 시동 눈길 끄는 대전 으능정이거리 형형색색 ‘우산’ 헤드라인 뉴스 육사 충남 이전 탄력 받을까… 여론조사부터 범도민추진위 구성까지 육군사관학교 충남 이전이 탄력을 받을지 관심이 쏠린다. 국민 절반 이상이 동의한다는 여론조사 결과는 물론, 충남도 차원에서 범도민추진위원회를 구성하는 등 속도를 내고 있어서다. 3일 충남도에 따르면, 여론조사전문업체인 리얼미터는 대통령직인수위원회가 약속한 '육사 등 충남 논산·계룡 이전 및 국방·보안 클러스터 조성' 관련 국민 인식 확인을 위해 자체 실시한 여론조사 결과를 최근 발표했다. 조사는 지난달 23∼24일 만 18세 이상 대한민국 거주 성인 남여 1000명 대상 ARS 방식으로 실시했으며, 오차범위는 ±3.10%포인트, 신.. #문재인 #前대통령 #서면조사 '文 전 대통령 서면조사' 통보에 충청 여야 '대충돌' 충청 여야가 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 대통령에게 서면조사를 통보한 것을 두고 격렬하게 맞붙고 있다. 더불어민주당에선 3선 중진으로 문재인 정부 법무부 장관을 지낸 박범계 의원(대전서을)이 선봉에 섰고 국민의힘의 경우 당내 최다선(5선)이자 간판인 정진석 비대위원장(공주부여청양)이 직접 나섰다. 당 '윤석열정권 정치탄압대책위원회' 위원장인 박 의원은 3일 오전 국회에서 기자회견을 열고 거세게 반발했다. 박 위원장 등은 "윤석열 정부가 노리는 것은 결국 문재인 전 대통령이었다"며 "현 정부 출범 이후 벌여.. #K-유교문화 #한국유교문화진흥원 'K-유교 세계화 거점' 한국유교문화진흥원 본격 운영 케이(K)-유교문화 세계화에 앞장서게 될 한국유교문화진흥원이 문을 열고 본격 운영에 들어갔다. 3일 도에 따르면, 1일 열린 한국유교문화진흥원 개원식엔 김태흠 지사와 강승규 대통령실 시민사회수석, 백성현 논산시장, 성일종·김종민 의원, 조길연 충남도의회 의장, 손진우 성균관장, 최영갑 유도회장, 지역 주민 등 500여 명이 참석했다. 논산시 노성면 병사리 일원에 자리 잡은 한국유교문화진흥원은 충청유교문화권 광역관광개발의 일환으로 사업을 추진, 착공 2년 7개월여 만인 2022년 1월 공사를 마무리했다. 규모는 대지 3만 8000㎡에.. 실시간 뉴스 3분전천안시 서북구보건소, 2022년 보건의료분야 기관상 수상 4분전천안시시설관리공단, 폐플라스틱 순환경제체계 전환 앞장 4분전세종시교육청, 스쿨 헬스 앱 개발·보급 4분전천안시, 충남체육대회에서 종합우승 '쾌거' 14분전홀트사랑나눔바자회 16분전증평 함께하는 행복돌봄 사업 본격 추진 21분전대전소방본부 유성권 소방장 '소방공무원 SAFE대상' 선정 21분전괴산 이달의 친절공무원에 박인구 주무관 선정 27분전[중도일보-대전교육청 공동캠페인] 최명환 정신건강거점센터장 "학생들에게 기댈 수 있는 존재 되고 싶다" 28분전[중도일보-대전교육청 공동캠페인] 대전대청중, 큰 꿈을 키우는 도서관, 한꿈 도서관 31분전태안군 소원면, 제6회 경로잔치 개최 33분전3년 만에 찾아온 '2022년 옥천어린이큰잔치' 34분전홍성군, 명품 광천토굴새우젓 축제 7일부터 10일까지 개최 34분전홍성복합문화창업공간 잇슈창고, '농부 시장' 개최 34분전보령시, 9월 중 열심히 일한 공무원 선정 표창 전체기사보기아이콘 기획시리즈 판소리의 원류는 충청도다 검색에 없는 대전충남史 중도초대석 Biz &amp; Money 휴먼스토리 드림인대전 대전시티즌 한화이글스 문화이슈 '톡톡' 이성희의 카메라 지난 기획시리즈 정치 [캠페인] 코로나19 극복 응원메시지 충청 총선 2020 총선열전 정치이슈 2017 19대 대통령선거 [19대] 대선주자 SNS 과학벨트 [19대] 대선주자 UCC 6·4 지방선거 제 18대 대통령선거 4·11 총선 후보자 동영상 미리보는 대전 시의회 2010 6·2 전국동시지방선거 2010 6·2 지방선거 출마의변 선택 6·2 지선 여론조사 김대중기자의 정치읽기 총선 당선자에게 듣는다 선택 4.9총선 총선주자 토크토크 선택 2007 大選 4.25 재보선 2차 남북정상회담 5·31 지방선거 6·5 재보선 4·15 총선 경제 생활의 지혜 신상품 [캠페인] 노벨상 응원메세지 빅데이터로 보는 상권분석 물가동향 장바구니 물가 인포그래픽으로 보는 세상 이코노미 줌 In 이경태기자의 부동산Q 세입자라면 꼭 알아두자 오늘의 대전 소셜커머스 알기쉬운 세무상식 주간증시전망 사회 대전 착한 SNS 릴레이 NGO 충남학교신문 미래 핵심역량의 시대 해군 천안함 침몰 北 연평도 포격 4.29 도교육감 선거 12.17 시교육감 선거 당직병원안내 6.25 도교육감 선거 문화 힐링 사자성어는 삶의 이음매 맛있는 주말 우리말OX 펫 book 뉴스 스나이퍼 거기 그곳 알쓸신조 관상톡 실전육아 톡톡톡 슬기로운 육아생활 일반 뉴스 대중음악 오복만땅 만약에 시사용어 이정은 기자의 원룸냥이 게임/웹툰 중국어교실 가요는 삶의 축 아침 山詩 일상탈출 우리동호회 백영주의 명화살롱 인생 사자성어 도시락(樂) 우난순의 필톡 우리문화를 아시나요 연예인실록 오완영시인의 時想 시경 주대환 교수의 생생 생활영어 금주의 핫클릭 5 궁금어사전 뜬금톡 이재복 박사의 한자세상 대한人 송교수의 우리말 이야기 뜬금포 글러벌 중도 이름으로 행복찾기 배워봅시다! 명의를 찾아서 작은콘서트 탁탁탁 즐겨요 충남 충정의 문화유산 종교/학술 오피니언 스포츠돋보기 이홍기의 말씀 세상 기자수첩 우난순의 필톡 문화칼럼 톡톡헬스뷰티 중도칼럼 아침세상 발언대 한마디 최충식 경제통 최충식 칼럼 경찰의 눈 사이언스리뷰 행복시대 월요아침 미디어의 눈 시시각각 문화산책 논단 시론 NGO소리 중도춘추 경제포럼 청풍명월 열린마당 모닝갤러리 의창(醫窓) 시사에세이 시시각각 세설 포토스포츠 엔터테인먼트 데스크시각 포토월드 맥클로이교수의 생활영어 청풍명월 임연희의 커뮤니케이션 주역과 세상 조성남 칼럼 신목민학 여론광장 최경애교수의 생활영어 빵의문화 장미의문화 논어로 푸는 세상 장영우의 뜸부기 장영우의 중도카툰 절기이야기 백마강(연재소설) 손지혜의 아침창가 즐거운 잡학 이런책 저런얘기 김영수의 詩 아침 책갈피 夕佳軒이야기 고충처리인제도 2007 활동상황 나도 한마디 임청산 박사의 만화만상 삶이 있는 아침 중도의 눈 심판자(연재소설) 김우영의 우리말 산책 시로 여는 아침 천둥 사람들 사람들 휴먼 보도자료 만나고 싶었습니다 캐릭터인터뷰 오늘의 소사 동네방네 기획연재 리뉴얼 충청 코로나19 극복! 힘내라 대전! 대전기록프로젝트 부 동 산 박붕준의 방송 타임머신 해외여행 리뷰 특집 최민호 소설-아웃터넷 오늘의 중도일보 유통 자치현장을 찾아서 기 업 금융 재밌는 법률상식 Q&amp;A 계룡로 객원기자의 눈 이현장,이문제 피플 월요포커스 아줌마 전성시대 청춘예찬 여기는 대덕특구 세상은 요지경 금주의 행사 안치홍의 골프세상 [특집] 과학의날 세계 핫이슈 더불어 삶 이제는 바꿉시다 여행 백북스와 함께 읽는 책 이슈 집중취재 손인중 기자의 Rewind 현장 우리동네 부동산 충남, 내고향의 산 명품 강좌를 말한다 여성/종교 창간 61주년 특집 JD 모닝레터 NGO 2012 신년호 특집 중도 60년 희망 60인 인터뷰 창간 60주년 특집 자율ㆍ창의 학교 특색살리기 김프로의 골프119 궁금어 사전 바른품성 5운동 한성일 기자의 성지순례 탐방기 족보 있는 도시 대전 조성남 주필의 스페인 문화산책 한방칼럼 이경태 기자의 세상돋보기 나눔사회 캠페인 365일 36.5도 우리동네 주치의 재미있는 단위 이야기 지영철의 렌즈속 세상 돌까마귀의 둘레산길 창간 60주년 기획대담 알기쉬운 세무상식 日강진 쓰나미 대재앙 손지혜의 통통칼럼 [중도일보60주년]2011새해특집 충청의 올레길 친환경 농산물이 책임진다 2010 세계대백제전 녹색자금 지원사업 현장을 가다 가자!세계문화유산으로 [창간59주년]브랜드NEW충청 [6.25전쟁]끝나지 않은 이야기 당선자에게 듣는다 2010부동산 가이드 글로벌 브랜드로 키우자 중국속의 백제문화 대전개시60년 그현장 그모습 장인의 혼을 찾아서 사랑실은 바른 인성교육 금강리포트 [그린시티]시민 삶을 바꾼다 일본도요산책 [창간58주년]파워풀충청 김대중 前대통령 서거 北, 2차 핵실험 [특별기획]승리의 역사를 가다 노무현 前대통령 서거 2009안면도 국제 꽃박람회 지역현안 단체장에 듣는다 과학이 희망이다 2009부동산 가이드 그때그현장 금요 골프 산이야기 대전을 명품 평생학습도시로 충청현장 이슈 2009 다시뛰는 충청 열려라! 방과후 학교 세계로 가는 충남도 충남 글로벌 예절교육 나는야 논술 짱 English Class 캠퍼스라이프 서해안을 살리자[연중캠페인] 대전 방과후학교 대청호 8경을 찾아서 학교탐방 김명환의 가요세상 충청박물지 대전.충남 개발현장을 가다 교육/대학 계룡대 숭례문 화재 대한민국 교육 大計 서민경제 현장을 가다 선택 4.9총선 實用시대 충청이 바뀐다 주말Fan 와인이야기 학교탐방 2007 충청아젠다 함께사는 공동체 집중취재 대전을 명품도시로 내고장최고 충청아젠다53제 만화세상 깨끗한 대전가꾸기 추석특집 창간56주년 재테크 돼지해 부자됩시다 클린대전 힘모읍시다 2007대선 만인 여론조사 총체적 위기 대전시티즌 한미FTA시대 함께사는사회를만들자 충청경제[economy] 주말매거진[Weekend秀] 작가의 산실 신충청시대를 열자 新 문화도시를 만들자 경제인줌인 비만없는도시를 만들자 대전,이래서좋다 신대동여지도 해체되는 가족사회 6ㆍ5 재보선 누가 뛰나? 선거문화 달라진다 나의도전2004 내고장자랑 추천기사 육사 충남 이전 탄력 받을까… 여론조사부터 범도민추진위 구성까지 '文 전 대통령 서면조사' 통보에 충청 여야 '대충돌' 'K-유교 세계화 거점' 한국유교문화진흥원 본격 운영 대전 UCLG 총회 일주일 앞으로… 국내외 524개 도시 5634명 등록 성공개최 시동 [현대아울렛 화재참사] 화물차 시동 켠 상태… 화재경보기 변수도 충청 국정감사 10月 넷째주 슈퍼위크 열린다 동영상 [영상]대전 현대아울렛 첫 현장조사! 인화물질? 전기차? 사고 원인은? 포토뉴스 눈길 끄는 대전 으능정이거리 형형색색 ‘우산’ 감소세 보이는 코로나19 신규 확진자에 한산해진 선별진료소 제68회 백제문화제 개막…백제로의 시간여행 떠나는 관광객들 계룡대에서 열린 국국의 날 기념식에 참석한 윤석열 대통령 인기뉴스 대전하나시티즌 추가시간 광주에 동점골 2-2무승부 이민성 감독, 팬들에게 죄송한 마음 전남전 최선을 다할 것 이민성 감독, 광주 같읕 팀을 이기지 못하면 희망이 없다 대전 펜싱 전국체전 사전 경기에서 금2개, 동1개로 좋은 출발 제29회 대전광역시장기 생활체육 야구대회 2일 갑천야구장서 개막 회사소개 기자별 기사보기 조직도 찾아오시는 길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 독자투고 중도일보 RSS 중도일보 PDF보기 고충처리인 편집규약 윤리강령 및 기자준칙 제작 윤리강령 광고 윤리강령 판매 윤리강령 청탁금지법 안내 청소년보호정책 원격지원 서울특별시 중구 서소문로 11길 2 효성빌딩 (우) 04515 전화 : 1522-4620  ㅣ  대전광역시 중구 계룡로 832 (우) 34908 전화 : 042-220-1114 회사명 : (주)중도일보사  제호 : 중도일보  인터넷신문 등록번호 : 대전 아00341  등록일자 : 2019-08-16  발행인 : 김원식  편집인 : 유영돈  청소년보호책임자 : 김덕기 Copyright by 중도일보 Co.,Ltd. All Rights Reserved</t>
-  </si>
-  <si>
-    <t>제주도관광협회 ‘탐나오’, 대한민국 인터넷대상 특별상 수상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회 ‘탐나오’, 대한민국 인터넷대상 특별상 수상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 ‘탐나오’, 대한민국 인터넷대상 특별상 수상 문유미 기자 승인 2018.12.03 17:32 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 김영진)가 운영하는 제주여행 종합쇼핑몰 ‘탐나오’가 3일 중소기업중앙회에서 과학기술정보통신부 주최로 열린 ‘제13회 대한민국 인터넷 대상’ 시상식에서 사회진흥부문 ICT연합회장상을 수상했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>제주도, 수산분야 내년 2597억원 투자…크루즈 관광객 100만명 유치 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 수산분야 내년 2597억원 투자…크루즈 관광객 100만명 유치 등록 2018.12.27 10:34:10 작게 크게 제주도청 전경.【제주=뉴시스】강정만 기자 = 제주특별자치도는 내년 수산업 조수입 1조2000억 원 달성, 크루즈 관광객 100만명 유치, 항만 물동량 2000만t을 목표로 2019년도에 총 2597억 원을 투자한다고 27일 밝혔다. 도는 이를 위해 전통 수산업 육성을 위해 연안어장 자원을 조성하고, 수산종묘 매입방류사업을 확대한다. 또, 해중림과 연안바다목장 조성, 수산물 수급가격안정 기금 조성, 수산물 처리저장 시설 지원, 수산산업 창업투자 지원, 수산물 수출물류센터 및 광어 가공유통센터 건립, 어선어업 경영안정 기반 구축 등 75개 사업에 596억 원을 투입한다. 한림항에 다목적 어업인 지원센터(2개년 170억 원)를 건립하고, 여성어업인 복지를 위한 행복바우처 사업을 확대·지원한다. 어촌뉴딜 300사업, 마리나항만 인프라 구축, 해양경관 복원, 무인도서 연료운반선 건조, 크루즈 질적 성장 등 37개 사업에 219억 원을 투자한다. 고령해녀 은퇴수당 및 신규해녀 정착지원금 지원, 해녀문화 보존을 위한 생활밀착형 사업과 공동체 문화복원 및 지역사회와의 상생프로그램 개발 등을 위해 31개 사업에 52억 원을 지원한다. 항만물류 인프라 구축을 통한 지역경제 활성화를 위해 제주항 탑동방파제 축조, 한림항·성산항 건설 등 제주의 백년대계를 위한 항만인프라 구축 5개 사업에 461억 원을 투자하고  해양관광, 레저 및 어항기능을 연계한 복합공간 조성을 위해 위미항 등 3개항에 144억 원을 투입할 계획이다. 김창선 도 해양수산국장은 “‘제주 해양시대, 더 큰 제주’를 실현하기 위해 사업의 조기발주와 신속한 재정집행을 통해 지역경제 활성화와 계획된 사업이 차질 없이 추진될 수 있도록 수산행정의 모든 역량을 집중하겠다"고 밝혔다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>중도일보 - 제주엔젤렌트카, 2018 하반기 제주도 특별자치도에서 ‘우수관광사업체’로 선정 제주엔젤렌트카, 2018 하반기 제주도 특별자치도에서 ‘우수관광사업체’로 선정 //=$stickSnsGg?&gt; 최종 편집일 : 2022-10-11 홈 기획연재 중도TV 정치행정 경제과학 사회교육 문화 오피니언 스포츠 전국 비주얼 사람들 대학입시 로그인 회원가입 뉴스 전체기사 기획/연재 운세 기획/연재 더보기 스토리가 있는 대전·충남 대학 공간 대전의 아름다운 건축물 얼마나 아니? 대전 Y-zone 프로젝트 여기 찜했슈 대전 더하기 뉴스바나나 거기 그곳 [유난한 식탁] 저는 채식주의자입니다 REE-PORT:친환경 보고서 트렌드일기: MZ읽기 골목시장을 걷다 문화 in, 문화 人 2022 리포트 충청지대 뉴스포커스 여론을 리서치하다 중도초대석 검색에 없는 대전·충남 파워 충청, 판을 바꾸자 도시재생 리포트 2021 지속가능한 문화도시 프로젝트 세종에 살어리랏다 [오류동사진관]다시 보는 충청의 역사 미제사건, 그날의 기억속으로 데이터 in 충청 기획 신천식의 이슈토론 창간70주년 기획 판소리의 원류는 충청도다 운세 오늘의 운세 오늘의 별자리 생년월일 운세 중도TV 전체기사 기획 시·도정소식 현장리포트 신천식의 이슈토론 박하림의 골프스튜디오 골린이 100일만에 필드보내기 정치/행정 6·1 지방선거 대전 충남/내포 지방의회 국회/정당 국정/외교 세종 썰: 솔깃한 이야기 2022 대선 대전의 2030 선대위 누가 있나 경제/과학 더보기 지역경제 건설/부동산 금융/증권 유통/쇼핑 기업/CEO 자동차 취업/창업 대전정부청사 대덕특구 공사·공단 IT/과학 아파트Info 로또 4차 산업 사회/교육 사건/사고 법원/검찰 교육/시험 노동/노사 환경/교통 미담 날씨 국방/안보 이슈&amp;화제 건강/의료 문화 더보기 공연/전시 영화/비디오 문화/출판 여성/생활 건강/의료 여행/축제 문화 일반 사람들 인터뷰 새인물 인사 동정 알림 부고 뉴스 社告 결혼 내방 다문화 신문 사회복지신문 실버라이프 바로잡습니다 오피니언 더보기 사설 독자 칼럼 독자위원회 &amp; 독자위원 칼럼 사외칼럼 세상읽기 여론광장 교단만필 시사오디세이 세상보기 세상속으로 춘하추동 오늘과내일 풍경소리 프리즘 중도시평 편집국에서 염홍철의 아침단상 우난순의 식탐 사이언스칼럼 월요논단 전문인칼럼 목요광장 홍석환의 3분 경영 문화人 칼럼 김선생의 시네레터 D-MZ:청년칼럼 홍키호테 세창밀시 문예공론 장상현의 재미있는 고사성어 알기쉬운 금융상식 문학박사 김우영의 문화산책 스포츠 더보기 한화이글스 축구 농구 배구 골프 생활체육 야구종합/메이저리그 스포츠종합 엘리트체육 대전하나시티즌 바둑 드림인대전 전국 더보기 수도권 부산/영남 충북 광주/호남 강원 천안시 아산시 공주시 보령시 서산시 당진시 논산시 계룡시 금산군 부여군 서천군 청양군 홍성군 예산군 태안군 비주얼 카드뉴스 포토 인포그래픽 대학입시 정시 수시 경제/과학 유통/쇼핑 제주엔젤렌트카, 2018 하반기 제주도 특별자치도에서 ‘우수관광사업체’로 선정 승인 2018-12-28 18:22 수정 2019-01-04 15:24 봉원종 기자 제주도 렌트카 전문 브랜드 ‘제주엔젤렌트카’가 제주도 특별자치도에서 선정하는 2018년도 하반기 제주도 우수관광사업체로 선정되어 주목을 받고 있다.  제주도에서 선정하는 우수관광사업체는 제주도 관광사업체의 품질향상과 서비스 개선으로 관광객의 만족도를 높임과 동시에 관광사업체의 경쟁력 강화를 도모하고자 진행하고 있으며, 분야별로 관광지, 교통, 숙박업, 여행업, 음식업 등 다양하게 선정된다. 우수관광사업체 선정의 평가기준은 사업체의 시설 및 환경, 서비스, 요금, 안전 및 위생관리, 친절도 등으로 관광객의 만족도다.  또한 전문가들로 구성된 평가위원들의 현장평가와 평정위원회의 심의를 거쳐 선정하기 때문에 선정된 우수관광사업체는 신뢰성이 높게 평가되는 지표 중 하나다. 특히 ‘제주엔젤렌트카’는 제주도 우수관광사업체 중 유일한 렌트카 업체로 더욱 주목받고 있다. 제주엔젤렌트카는 제주공항과 도심에 인접해 있으며, 대규모 사업장 부지 확보로 방문 고객의 불편함을 최소화했다.  뿐만 아니라 경차, 고급, 승합, 전기차까지 다양한 차종을 보유하고 있으며, 2019 년식 최신 차량을 포함해 총 400 여대를 직영으로 운영해 고객들의 차량 선택 폭이 넓다. 또한 태블릿 PC를 활용해 전자계약서로 작성 하고 있으며, 신속 정확한 배반차 시스템으로 차량 인수 및 반납 시 고객에게 편리함을 제공하고 있다. 또한 차별화된 이벤트를 지속적으로 실시해 제주 여행객에게 합리적인 가격과 편리한 서비스를 모두 제공하고 있는 업체로 알려져있다. 제주엔젤렌트카 강영민, 김재린 공동대표는 “우수관광사업체로 선정된만큼 제주도 방문객의 니즈를 충족시킬 수 있는 차별화된 이벤트와 서비스를 제공할 것을 약속드린다”며 “더 좋은 서비스로 보답하기 위해 임직원 모두 최선의 노력을 다하겠다”고 전했다. 한편 제주엔젤렌트카 관련 더욱 자세한 정보는 공식 홈페이지를 통해 확인 가능하다. /봉원종 기자 중도일보(www.joongdo.co.kr), 무단전재 및 수집, 재배포 금지 기자의 다른기사 보기 랭킹뉴스 한국농수산식품유통공사, 이해충돌방지 자문위원 위촉 [정치펀치]상병헌 세종시의장, 성추행 논란 확산 양상 부원건설, 대전 최초 '트리쉐이드' 브랜드아파트 공급 2022 개정 교육과정 놓고 커지는 교육계 갈등 지역대학생에게 직무 체험 제공하는 '청년 뉴리더 양성사업' 축소 여부 촉각 꺾이지 않는 소비자물가 상승률... 한은, 12일 빅스텝 밟을까 골프존, 12일 '신한투자증권 KPGA 코리안투어 2차대회' 개최 [정치펀치] 세종시의회 민주당, 10일 오후 내내 어수선 [장상현의 재미있는 고사성어] 제140강 타초경사(打草驚蛇) 벌써 22대 총선 전초전?… "대전 동구·중구 경쟁 뜨겁다?" 헤드라인 뉴스 우주산업 클러스터 3각체제 추진에 대전시 "환영" 과학기술정보통신부 우주개발진흥실무위원회가 우주산업 클러스터 3각 체제 추진안을 의결하고 연구·인재개발 분야 특화지구를 발표했다. 특화지구 지역은 11월 발표될 예정이지만, 대전시는 우선 환영의 뜻을 밝혔다. 우주 관련 연구 및 인재개발 인프라를 보유하고 있는 만큼 향후 특화지구 지정에 한 발 다가섰다는 입장이다. 우주산업 클러스터 3각 체제는 경남 사천, 전남 고흥과 함께 앞으로 정부의 민간주도 우주산업 육성을 위한 전초기지가 될 예정이다. 과기부는 추가된 연구·인재개발 특화지구는 기존 발사체·위성 특화지구와 차별화된 미래 신산업.. #생물안전 #공용연구시설 #병원제자원 대전에 '생물안전 3등급' 고위험 병원체자원 공용연구시설 생겼다 충남대학교병원(원장 윤환중)은 10월 7일 의생명융합센터에서 '고위험 병원체자원 BL3 공용연구시설' 준공식을 가졌다. &lt;사진&gt; 고위험 병원체자원 공용연구시설은 신종 감염병에 대한 분석과 진단·연구를 공동으로 진행, 기업지원체계를 구축하는 것이 골자다. 이에 따라 대전지역 내 감염병 관련 신약개발연구가 활성화될 것으로 기대된다. 이날 준공식에는 대전시 이석봉 과학부시장을 비롯해 대전시의회 송활섭 운영위원장·박주화 교육위원장, 임헌문 대전테크노파크 원장, 충남대학교병원 윤환중 원장, 대전을지대학교병원 이승훈 의생명과학연구원장, 건양대.. #지역화폐 #온통대전 #캐시백 캐시백 줄어들자 사용자 이탈? "유지냐 폐지냐" 10월 온통대전 운명 결정된다 유지 또는 폐지 갈림길에 선 대전시 지역화폐 온통대전의 운명이 이달 결정된다. 올 연말까지는 추경 예산 투입으로 월 30만 원, 5% 캐시백은 유지되겠지만, 정부 지원 예산이 중단되는 2023년 정책 방향을 결정해야 할 시점이기 때문이다. 폐지를 속단하긴 이르지만 현재까지 관측된 바로는 온통대전 앞날은 '흐림'이다. 이장우 대전시장은 당선 이후 줄곧 소비의 불공정 언급하며 부정적 의견을 피력해 유지 가능성은 낮아 보인다. 문제는 소상공인(자영업자)과 시민 만족도가 높은 정책이다 보니 일방적인 폐지는 시정 지속성을 잃어버린 '주민참여.. 더불어민주당 대전시당 "온통대전 전체업종 매출 증가 긍정적" 실시간 뉴스 6분전한국수자원공사, 건강한 친환경 수돗물 홍보 캠페인 11분전김영환 도지사 증평서 도민과의 대화 1시간전논산시, 백제병원과 24시간 임산부·영유아 응급의료협약 1시간전금산소방서, 소방안전체험장 운영 성공적 마무리 1시간전평생학습도시 재지정평가 금산군 우수 도시 선정 1시간전제40회 금산인삼축제 10일 피날레…역대 최대 103만 명 운집 1시간전옥천 ㈜더조은숲, 취약계층에게 연탄 2000장 나눔 1시간전예산군, 제33회 추사 김정희 선생 추모 전국휘호대회 성료 1시간전예산군, 예산장터 삼국축제에서 나무 나눠주기 행사 추진 1시간전예산 삽교중에서 등굣길 폭력예방 캠페인 펼쳐 1시간전공주교육지원청, 보건·흡연예방 교육 연구회 ? 흡연예방 거리 캠페인 실시 1시간전48년째 명맥 이어온 부여 충화면 백제문화제 전통제례 '눈길' 1시간전공주정보고, 전국청소년 배구대회 '최종 우승' 1시간전공주시, ‘도서관 책 축제’ 오는 15일 개최 1시간전공주시, 조기폐차 및 LPG 화물차 신차구입 지원 추가 신청 전체기사보기아이콘 기획시리즈 판소리의 원류는 충청도다 검색에 없는 대전충남史 중도초대석 Biz &amp; Money 휴먼스토리 드림인대전 대전시티즌 한화이글스 문화이슈 '톡톡' 이성희의 카메라 지난 기획시리즈 정치 [캠페인] 코로나19 극복 응원메시지 충청 총선 2020 총선열전 정치이슈 2017 19대 대통령선거 [19대] 대선주자 SNS 과학벨트 [19대] 대선주자 UCC 6·4 지방선거 제 18대 대통령선거 4·11 총선 후보자 동영상 미리보는 대전 시의회 2010 6·2 전국동시지방선거 2010 6·2 지방선거 출마의변 선택 6·2 지선 여론조사 김대중기자의 정치읽기 총선 당선자에게 듣는다 선택 4.9총선 총선주자 토크토크 선택 2007 大選 4.25 재보선 2차 남북정상회담 5·31 지방선거 6·5 재보선 4·15 총선 경제 생활의 지혜 신상품 [캠페인] 노벨상 응원메세지 빅데이터로 보는 상권분석 물가동향 장바구니 물가 인포그래픽으로 보는 세상 이코노미 줌 In 이경태기자의 부동산Q 세입자라면 꼭 알아두자 오늘의 대전 소셜커머스 알기쉬운 세무상식 주간증시전망 사회 대전 착한 SNS 릴레이 NGO 충남학교신문 미래 핵심역량의 시대 해군 천안함 침몰 北 연평도 포격 4.29 도교육감 선거 12.17 시교육감 선거 당직병원안내 6.25 도교육감 선거 문화 힐링 사자성어는 삶의 이음매 맛있는 주말 우리말OX 펫 book 뉴스 스나이퍼 거기 그곳 알쓸신조 관상톡 실전육아 톡톡톡 슬기로운 육아생활 일반 뉴스 대중음악 오복만땅 만약에 시사용어 이정은 기자의 원룸냥이 게임/웹툰 중국어교실 가요는 삶의 축 아침 山詩 일상탈출 우리동호회 백영주의 명화살롱 인생 사자성어 도시락(樂) 우난순의 필톡 우리문화를 아시나요 연예인실록 오완영시인의 時想 시경 주대환 교수의 생생 생활영어 금주의 핫클릭 5 궁금어사전 뜬금톡 이재복 박사의 한자세상 대한人 송교수의 우리말 이야기 뜬금포 글러벌 중도 이름으로 행복찾기 배워봅시다! 명의를 찾아서 작은콘서트 탁탁탁 즐겨요 충남 충정의 문화유산 종교/학술 오피니언 스포츠돋보기 이홍기의 말씀 세상 기자수첩 우난순의 필톡 문화칼럼 톡톡헬스뷰티 중도칼럼 아침세상 발언대 한마디 최충식 경제통 최충식 칼럼 경찰의 눈 사이언스리뷰 행복시대 월요아침 미디어의 눈 시시각각 문화산책 논단 시론 NGO소리 중도춘추 경제포럼 청풍명월 열린마당 모닝갤러리 의창(醫窓) 시사에세이 시시각각 세설 포토스포츠 엔터테인먼트 데스크시각 포토월드 맥클로이교수의 생활영어 청풍명월 임연희의 커뮤니케이션 주역과 세상 조성남 칼럼 신목민학 여론광장 최경애교수의 생활영어 빵의문화 장미의문화 논어로 푸는 세상 장영우의 뜸부기 장영우의 중도카툰 절기이야기 백마강(연재소설) 손지혜의 아침창가 즐거운 잡학 이런책 저런얘기 김영수의 詩 아침 책갈피 夕佳軒이야기 고충처리인제도 2007 활동상황 나도 한마디 임청산 박사의 만화만상 삶이 있는 아침 중도의 눈 심판자(연재소설) 김우영의 우리말 산책 시로 여는 아침 천둥 사람들 사람들 휴먼 보도자료 만나고 싶었습니다 캐릭터인터뷰 오늘의 소사 동네방네 기획연재 리뉴얼 충청 코로나19 극복! 힘내라 대전! 대전기록프로젝트 부 동 산 박붕준의 방송 타임머신 해외여행 리뷰 특집 최민호 소설-아웃터넷 오늘의 중도일보 유통 자치현장을 찾아서 기 업 금융 재밌는 법률상식 Q&amp;A 계룡로 객원기자의 눈 이현장,이문제 피플 월요포커스 아줌마 전성시대 청춘예찬 여기는 대덕특구 세상은 요지경 금주의 행사 안치홍의 골프세상 [특집] 과학의날 세계 핫이슈 더불어 삶 이제는 바꿉시다 여행 백북스와 함께 읽는 책 이슈 집중취재 손인중 기자의 Rewind 현장 우리동네 부동산 충남, 내고향의 산 명품 강좌를 말한다 여성/종교 창간 61주년 특집 JD 모닝레터 NGO 2012 신년호 특집 중도 60년 희망 60인 인터뷰 창간 60주년 특집 자율ㆍ창의 학교 특색살리기 김프로의 골프119 궁금어 사전 바른품성 5운동 한성일 기자의 성지순례 탐방기 족보 있는 도시 대전 조성남 주필의 스페인 문화산책 한방칼럼 이경태 기자의 세상돋보기 나눔사회 캠페인 365일 36.5도 우리동네 주치의 재미있는 단위 이야기 지영철의 렌즈속 세상 돌까마귀의 둘레산길 창간 60주년 기획대담 알기쉬운 세무상식 日강진 쓰나미 대재앙 손지혜의 통통칼럼 [중도일보60주년]2011새해특집 충청의 올레길 친환경 농산물이 책임진다 2010 세계대백제전 녹색자금 지원사업 현장을 가다 가자!세계문화유산으로 [창간59주년]브랜드NEW충청 [6.25전쟁]끝나지 않은 이야기 당선자에게 듣는다 2010부동산 가이드 글로벌 브랜드로 키우자 중국속의 백제문화 대전개시60년 그현장 그모습 장인의 혼을 찾아서 사랑실은 바른 인성교육 금강리포트 [그린시티]시민 삶을 바꾼다 일본도요산책 [창간58주년]파워풀충청 김대중 前대통령 서거 北, 2차 핵실험 [특별기획]승리의 역사를 가다 노무현 前대통령 서거 2009안면도 국제 꽃박람회 지역현안 단체장에 듣는다 과학이 희망이다 2009부동산 가이드 그때그현장 금요 골프 산이야기 대전을 명품 평생학습도시로 충청현장 이슈 2009 다시뛰는 충청 열려라! 방과후 학교 세계로 가는 충남도 충남 글로벌 예절교육 나는야 논술 짱 English Class 캠퍼스라이프 서해안을 살리자[연중캠페인] 대전 방과후학교 대청호 8경을 찾아서 학교탐방 김명환의 가요세상 충청박물지 대전.충남 개발현장을 가다 교육/대학 계룡대 숭례문 화재 대한민국 교육 大計 서민경제 현장을 가다 선택 4.9총선 實用시대 충청이 바뀐다 주말Fan 와인이야기 학교탐방 2007 충청아젠다 함께사는 공동체 집중취재 대전을 명품도시로 내고장최고 충청아젠다53제 만화세상 깨끗한 대전가꾸기 추석특집 창간56주년 재테크 돼지해 부자됩시다 클린대전 힘모읍시다 2007대선 만인 여론조사 총체적 위기 대전시티즌 한미FTA시대 함께사는사회를만들자 충청경제[economy] 주말매거진[Weekend秀] 작가의 산실 신충청시대를 열자 新 문화도시를 만들자 경제인줌인 비만없는도시를 만들자 대전,이래서좋다 신대동여지도 해체되는 가족사회 6ㆍ5 재보선 누가 뛰나? 선거문화 달라진다 나의도전2004 내고장자랑 추천기사 우주산업 클러스터 3각체제 추진에 대전시 "환영" 대전에 '생물안전 3등급' 고위험 병원체자원 공용연구시설 생겼다 캐시백 줄어들자 사용자 이탈? "유지냐 폐지냐" 10월 온통대전 운명 결정된다 벌써 22대 총선 전초전?… "대전 동구·중구 경쟁 뜨겁다?" 대전시 튀르기예, 우루과이, 가봉과 우호도시 협약 체결 걷고, 쉬며, 노는 '세종축제 2.0'개막 동영상 [영상]대전시립미술관 열린 수장고 개관…백남준 작가 프랙탈 거북선 원형 복원 포토뉴스 2022 세계지방정부연합(UCLG)개막…14일까지 다양한 행사 풍성 갑자기 찾아온 추위에 잔뜩 움츠린 시민들 3년 만에 대면으로 열린 효문화뿌리축제…관람객들로 ‘북적북적’ 대전 오월드 백두산호랑이 3남매 100일 맞아 일반에 공개 인기뉴스 한국농수산식품유통공사, 이해충돌방지 자문위원 위촉 [정치펀치]상병헌 세종시의장, 성추행 논란 확산 양상 부원건설, 대전 최초 '트리쉐이드' 브랜드아파트 공급 2022 개정 교육과정 놓고 커지는 교육계 갈등 지역대학생에게 직무 체험 제공하는 '청년 뉴리더 양성사업' 축소 여부 촉각 회사소개 기자별 기사보기 조직도 찾아오시는 길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 독자투고 중도일보 RSS 중도일보 PDF보기 고충처리인 편집규약 윤리강령 및 기자준칙 제작 윤리강령 광고 윤리강령 판매 윤리강령 청탁금지법 안내 청소년보호정책 원격지원 서울특별시 중구 서소문로 11길 2 효성빌딩 (우) 04515 전화 : 1522-4620  ㅣ  대전광역시 중구 계룡로 832 (우) 34908 전화 : 042-220-1114 회사명 : (주)중도일보사  제호 : 중도일보  인터넷신문 등록번호 : 대전 아00341  등록일자 : 2019-08-16  발행인 : 김원식  편집인 : 유영돈  청소년보호책임자 : 김덕기 Copyright by 중도일보 Co.,Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도관광협회 2018 제주 관광인 송년의 밤 행사 개최 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회 2018 제주 관광인 송년의 밤 행사 개최 파이낸셜뉴스입력 2018.12.20 12:20수정 2018.12.20 17:03 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 김영진 회장 "업계 상생 협력 프로그램 강화" 관광진흥유공자 표창·우수 공영관광지 시상 2018 제주 관광인 송년의 밤 행사 [제주=좌승훈 기자] 제주특별자치도관광협회(김영진 회장)는 19일 제주시 메종글래드호텔 컨벤션홀에서 '제주 관광인 송년의 밤'행사를 개최했다. 이날 송년의 밤 행사에는 원희룡 제주도지사, 김태석 제주도의회 의장, 펑춘타이 주제주중국총영사, 기타리츠오 주제주일본국총영사를 비롯해 도의원, 관광 원로, 유관기관 단체장, 관광사업체 임직원 등 800여명이 참석했다. 김영진 회장은 인사말을 통해 "내년에는 관광업계의 상생 협력 프로그램과 경쟁력 강화를 위한 사업들을 중단 없이 추진해 나가겠다"며 올 한 해 동안 제주 관광 현장에서 노력해 온 제주 관광인들을 격려했다. 이어 제주도관광협회 사랑나눔봉사단이 연말 불우이웃돕기 성금으로 대한적십자사 제주지사와 사회복지공동모금회에 각각 300만원을 전달했다. 또 오영수 KT&amp;G 제주본부장이 제주관광발전기금으로 500만원을 기탁했다. 다음은 관광진흥 유공자 표창과 우수 공영관광지 시상 명단. □ 관광진흥유공자 ▲제주도지사상 △정희영 ㈜정플러스 여행사 대표 △홍순길 ㈜가자일영투어 대표 △강종표 호텔더본제주 총지배인 △김순자 ㈜발리렌트카 대표이사 △이철행 ㈜메이즈랜드 전무이사 △문홍택 토끼와거북이 전무 △노철 OK승마장 대표 ▲제주도의회의장상 △김순옥 ㈔제주도국내여행안내사협회 △양명희 ㈔한국관광통역안내사협회 제주지부 △이승준 ㈔제주도중국어관광통역안내사협회 ▲한국관광협회중앙회장상 △윤상림 대국해저관광㈜(서귀포잠수함) 운항부장 △양문권 봉봉감귤체험농장 대표 ▲제주특별자치도관광협회장상 △고연주 비피(BP)게스트하우스 대표 △오상훈 ㈜명문고속관광 직원 △문다혜 ㈜산굼부리 과장 △김유섭 멀티넷정보통신 대표 □ 우수공영관광지 시상 ▲최우수상 △치유의 숲 ▲우수상 △기당미술관 △서귀포천문과학문화관 ▲장려상 △붉은오름자연휴양림 △제주돌문화공원 △민속자연사박물관 ▲발전상 △천제연폭포 △주상절리. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>신화련 금수산장 관광단지, 제주도 개발사업심의 '통과' - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 신화련 금수산장 관광단지, 제주도 개발사업심의 '통과' 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 신화련 금수산장 관광단지, 제주도 개발사업심의 '통과' 제주CBS 박정섭 기자 메일보내기 2018-12-19 14:19 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 국내 금융기관에 770억원 예치 조건부첫삽까지 제주도의 인허가 승인만 남아 심사 보류 등으로 개발 문턱에서 번번이 좌절됐던 '신화련 금수산장 관광단지 조성사업'이 개발사업심의를 통과, 첫 삽을 눈앞에 두게 됐다. 2015년 7월 사전입지검토 신청서를 제주도에 제출한 이후 만 3년여만이다. 제주도 개발사업심의위원회는 지난 18일 오후 회의를 열고, 신화련 금수산장 관광단지 조성사업을 조건부로 의결했다.이 사업은 지난달 22일 개발사업심의위원회에서 투자자본 조달계획 문제로 심사 보류됐었다.개발사업심의위원회는 사업자측이 제출했던 자금 770억원을 착공 전까지 국내 금융기관에 예치하는 것을 조건으로 심의를 통과시켰다.또 수익성 등 구체적인 사업성 검토 내용도 제출할 것을 주문했다.이로써 사업자측이 위원회가 제시한 부대조건을 모두 충족하면 최종적으로 제주도의 인허가 승인만 남게 된다.신화련 금수산장 관광단지는 제주시 한림읍 금악리 86만6539㎡ 부지에 휴양콘도미니엄 48실과 호텔 664실 등의 숙박시설, 6홀 규모 골프코스 등을 짓는 사업이다. 총 투자비용은 7239억원이다. 신화련 금수산장 관광단지 사업은 지난 3월 '환경영향평가서 협의내용 동의안'이 도의회 의결 정족수를 간신히 넘겨 가결됐었다.사업지구 인근 양돈장 이설과 폐업 보상 문제를 해결하고, 20m(5층)로 계획된 건물 높이를 12m(3층)로 하향 조정하는 조건이다.한편 18일 함께 심의된 신화역사공원 유원지는 수익성 검토 등 민간 투자부문 투자계획에 대한 상세 내용 제출을 달아 재검토 의결됐다.제주헬스케어타운 유원지도 민간 투자부문에서 녹지그룹의 향후 수익성 분석 내용과 추가 투자부문의 구체적인 계획 제출을 달아 재검토 의결됐다.중문 유원지는 미완료 사업장에 대한 세부 투자계획과 향후 자금 조달 계획서를 6개월 안에 개발사업심의위원회에 보고하라며 조건부 의결됐고, 성산포해양 유원지는 '원안'대로 의결됐다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" '택시 연 매출, 배달업의 1/3에 불과' "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 군 "北 저수지 탄도미사일, 한미 '킬 체인' 의식"…실효성은 글쎄? 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주엔젤렌트카, '2018년도 하반기 제주도 우수관광사업체' 선정 - 세계일보 Facebook Twitter Naver 전체뉴스 금융 은행 보험 2금융 카드 증권 주식/펀드 채권/외환 산업 재계 IT/통신 중공업 중기/벤처 유통 유통 소비자 부동산 주택 건설 의약 제약 바이오 병원 워라밸 여행/레저 자동차 인물 인사/동정 부고 오피니언 외부기고 기자수첩 . . 검색 제주엔젤렌트카, '2018년도 하반기 제주도 우수관광사업체' 선정 이경하 기자 입력 2018-12-27 16:13:26 수정 2018-12-27 16:13:25 사진=제주엔젤렌트카 [세계파이낸스=이경하 기자] 제주도 렌트카 브랜드 제주엔젤렌트카가 제주도 특별자치도에서 선정하는 2018년도 하반기 우수관광사업체로 선정되었다고 27일 밝혔다. 이번 우수관광사업체 선정은 제주도 렌트카 업체로는 유일한 것으로 대내외적으로 서비스 품질을 검증받은 것이라고 회사측은 평가했다.제주도 우수관광사업체는 도내 관광사업체의 품질향상과 서비스 개선으로 관광객의 만족도를 향상시키고 관광사업체의 경쟁력 강화를 도모하는 취지로 선정하고 있다. 관광지, 교통, 숙박업, 여행업, 음식업 등 분야별로 선정되며, 사업체의 시설 및 환경, 서비스, 요금, 안전 및 위생관리, 친절도 등이 주요평가항목으로 전문가들로 구성된 평가위원들의 현장평가와 평정위원회의 심의를 거쳐 지정된다.제주엔젤렌트카는 제주공항 및 도심과 인접한 거리에 위치해 있고, 대규모 사업장 부지 확보로 방문 고객의 불편함을 해소했다고 밝혔다. 아울러 경차부터 고급차, 승합차, 전기차까지 다양한 차종, 2018년식 최신 차량 등 총 400여대를 보유해 직영으로 운영하고 있으며, 태블릿PC를 활용한 전자계약서 작성 등으로 신속정확한 배반차 시스템을 구축해 차량 인수 및 반납 시 고객의 불편을 최소화했다.또 마지막날 무료 및 완전자차 무료 이벤트 등 타 회사와 차별화된 이벤트를 진행 중으로 제주여행 고객에게 저렴한 가격과 친절 서비스를 동시에 제공하고 있다고 업체측은 설명했다.강영민, 김재린 제주엔젤렌트카 공동대표는 “이번 우수관광사업체 선정을 계기로 앞으로도 제주도 방문객의 다양한 니즈를 반영하는 차별화된 이벤트와 만족스런 서비스 제공을 약속드린다”며 “이를 지키기 위해 임직원 모두 최선의 노력을 다할 것”이라 말했다.lgh0811@segye.com 20181227003510 0511000000000 0 2018-12-27 16:13:51 2018-12-27 16:13:25 0 제주엔젤렌트카, '2018년도 하반기 제주도 우수관광사업체' 선정 세계파이낸스 이경하 0028f8cc-c883-4815-9315-2c6633fff652 ⓒ 세계비즈 &amp; segyebiz.com, 무단 전재 및 재배포 금지 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오피니언 [기고] 건축만 리모델링? 이젠 보험 리모델링은 선택 [기고] 스타트업 투자 빙하기의 생존 전략 [기고]매파적 연준, 금리인상의 끝은 어디일까 [기고]글로벌 경제, ‘디스토피아’ 그림자 드리워져 [기고]최저치와 최고치를 갈아 치우고 있는 주택시장 [기고] 가업승계와 관련된 세제개편안 [기고]다락같이 오른 소득 대비 주택 금융비용 그래픽뉴스 "‘착오송금 구제법’ 다룰 정무위 면면 촉각" 기획특집 [요즘 뜨는 핫플레이스⑦]NH투자증권 [요즘 뜨는 핫플레이스⑥] 대세는 팝 [요즘뜨는 핫플레이스⑤] 테라스 앉아 [해외서 돌파구 찾는 4대 은행 &lt;下&lt;&gt;下&lt;&gt; 많이 본 뉴스 CSR 벨톤보청기 광명난청센터, 광명 노인의 컴패션, 니카라과 교회 설립 위한 모 우주텍, 기능성 인솔 ‘닥솔’ 아주대 사단법인 좋은변화, KB손해보험와 함 비락, 2022년 초록우산 아이리더 인물 [부고] 장영순 현대이지웰·현대드림투 [부고]심혁(NH투자증권 강남금융센터 [부고]김지준(키움증권 상무)씨 부친 [부고] 김재경(MG손해보험 일반보험 [부고] 김영곤 (우리카드 ESG경영 글씨 크게 글씨 작게 이메일로 보내기 인쇄하기 금융 은행 보험 2금융 카드 증권 주식/펀드 채권/외환 산업 재계 IT/통신 중공업 중기/벤처 유통 유통 소비자 부동산 주택 건설 의약 제약 바이오 병원 워라밸 여행/레저 자동차 Family Sites 세계일보 스포츠월드 회사소개 광고안내 독자인권위원회 개인정보취급방침 이용자약관 고객센터 RSS 제호: 세계비즈 주소: 서울특별시 용산구 서빙고로 17 등록번호 : 서울 아01555 등록일(발행일) : 2011년 3월 18일 발행/편집인 : 정희택 (대표전화 : 02-2000-1800) 청소년보호 책임자 : 송광섭   | Copyright ⓒ segyebiz.com. All rights reserved. &lt;인터넷신문위원회 윤리강령을 준수합니다.&gt;</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 자본검증 재개…27일 예정 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 오라관광단지 자본검증 재개…27일 예정 파이낸셜뉴스입력 2018.12.21 17:20수정 2018.12.21 17:20 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주오라관광단지 조감도 /사진=fnDB [제주=좌승훈 기자] 제주지역 개발사업 가운데 최대 규모인 제주오라관광단지에 대한 자본검증이 속도를 낼 전망이다. 제주특별자치도는 최근 자본검증위원회(위원장 박상문)가 요청한 자료를 사업자인 JCC㈜에서 모두 제출했고, 신임 대표가 선임됨에 따라 오는 27일 자본검증위원회를 개최하기로 했다. 지난 3월 자본검증위 회의가 개최되고 난 후 9개월 만이다. 자본검증위는 제출된 자료 검토와 함께 연말 시행되는 기업 신용평가 결과를 인용할 것인지, 아니면 별도의 신용평가를 의뢰할 것인지 향후 검증 방향을 설정하게 된다. 한편 제주오라관광단지는 제주시 오라2동 일대 357만5753㎡에 2021년까지 5조2800억원을 투자해 제주 최대 규모의 마이스(MICE) 복합리조트단지를 조성하는 사업이다 JCC㈜ 모기업이자 중국 화룽그룹(华融集团) 계열사인 화룽치업(华融置业)의 가오간 대표이사는 지난달 11일 원희룡 제주도지사와 면담을 통해 화룽그룹과 화룽치업의 경영비전과 현황을 설명하고, 사업 추진에 대한 확고한 의지를 밝힌 것으로 알려졌다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 앱쇼코리아 박람회 참가 체험관 운영 &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 앱쇼코리아 박람회 참가 체험관 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제주도관광협회 앱쇼코리아 박람회 참가 체험관 운영 기자명 김용현 기자 입력 2018.12.23 15:30 수정 2018.12.23 19:19 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 김영진)는 20일부터 22일까지 서울 코엑스에서 열린 ICT(Information and Communications Technologies) 산업의 생태계를 망라하는 전문 비즈니스 '앱쇼코리아' 박람회에 참가, 제주지능형관광콘텐츠 홍보관 및 체험존을 운영했다.지능형관광콘텐츠란 '지능형콘텐츠'와 '관광산업'의 융합으로 제주도 관광서비스 만족도 향상을 위해 원하는 시기에 원하는 형식의 제주 관광정보를 제공해주는 새로운 제주도 관광 서비스의 비즈니스 모델이다. 김용현 기자 noltang@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 “투자개방형 병원 조건부 허가 결정 지지” - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회 “투자개방형 병원 조건부 허가 결정 지지” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회 “투자개방형 병원 조건부 허가 결정 지지” 문유미 기자 승인 2018.12.17 15:24 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 김영진)가 17일 제주도의 투자개방형 병원 조건부 개설허가 결정에 대해 지지 입장을 밝혔다. 제주도관광협회는 이날 성명서를 내고 “이번 제주도의 결정은 회복돼 가는 한·중 외교문제에 대한 우려와 감소세로 돌아선 제주 관광산업의 재도약 등 미래를 위한 불가피한 선택이었다는 점에서 도내 전 관광업계와 더불어 국내 첫 투자개방형 병원의 조건부 허가를 지지한다”고 밝혔다. 이들은 특히 “현재 세계 각국에서는 의료관광산업을 미래의 성장동력으로 주목하면서 앞다퉈 의료관광객 유치에 나서고 있으며, 국내 지자체에서도 의료관광 특구 지정 등 의료관광 활성화를 위해 치열한 경쟁을 하고 있다”며 “차별화된 의료관광 상품 개발은 고부가가치 의료관광객을 유치, 관광업계에 활력을 불어넣음으로써 최근 주춤하고 있는 제주관광에 전환점을 마련하는 중요한 계기가 될 것”이라고 강조했다. 도관광협회는 “일각에서는 의료의 공공성 악화에 대한 우려를 제기하고 있지만, 외국인 의료관광객으로만 한정하는 조건부 허용은 이에 대한 우려를 불식시킬 뿐만 아니라 풍부한 자본의 투자를 바탕으로 의료서비스의 질적 향상과 함께 궁극적으로 의료산업의 경쟁력을 키워나갈 수 있다”고 덧붙였다. 이들은 이어 “제주도가 내린 이번 결정은 제주를 넘어 우리나라의 관광산업 발전에도 역동성을 불어넣어줄 것으로 기대되는 바, 투자개방형 병원의 허가결정을 환영한다”고 밝혔다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, 중국 텐센트와 관광산업·전통시장 활성화 협약 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 중국 텐센트와 관광산업·전통시장 활성화 협약 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 중국 텐센트와 관광산업·전통시장 활성화 협약 송고시간2018-12-10 16:50 中文 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 (제주=연합뉴스) 김호천 기자 = 제주도는 10일 아시아 최대 IT기업인 중국 텐센트와 '제주 스마트 관광 협력 공동 추진 및 관광산업·전통시장 활성화를 위한 업무협약'을 체결했다. 제주도-텐센트, 스마트 관광 협약 (제주=연합뉴스) 전성태 제주도 행정부지사(오른쪽 세 번째)와 장잉 중국 텐센트그룹 부총재(오른쪽 네 번째)가 10일 오전 제주도청에서 스마트 관광 업무협약을 체결하고 나서 관계자들과 함께 기념촬영을 하고 있다. 도는 이번 협약을 통해 텐센트 위챗 플랫폼에 '제주특별자치도' 공식 계정을 개설해 할인 이벤트, 프로모션 정보 등을 팔로워들에게 전달하는 방식으로 중국인 관광객 유치 마케팅에 힘쓴다. 또 위챗페이를 사용한 관광객을 대상으로 한 빅데이터 분석 결과를 공유해 중국 개별관광객 소비 성향을 파악할 예정이다. 문화교류와 제주 관광산업 발전을 위한 국제행사 유치에도 적극적으로 나선다. 광고 협약 이행과 지속적인 협력 사업을 추진하기 위해 도는 관광정책과장을, 텐센트는 해외 공공사무센터 책임자를 소통 채널로 지정했다. 전성태 제주도 행정부지사는 이날 "최근 중국 관광객이 많이 줄었으나 제주에 있어 중국은 여전히 중요한 시장"이라며 "이번 협약으로 제주 관광산업과 전통시장이 활성화돼 도민과 중국 관광객 모두를 만족시키는 성과가 나오기를 바란다"고 기대했다. 장잉 텐센트 그룹 부총재는 "중국은 이미 지갑 없이 외출하는 것이 보편적인 생활 방식으로 자리 잡았다"며 "위챗페이는 제주도 내 가맹점과 적극적으로 협력해 중국 관광객을 끌어들일 수 있도록 하겠다"고 화답했다. 텐센트는 소셜네트워크 메신저와 게임, 온라인 결제 서비스 사업 등을 주력으로 하는 중국 최대 IT기업이다. 중국 최대 SNS 위챗의 회원 수는 올해 10억명을 넘어섰고 위챗페이 이용자는 8억명을 넘어서 모바일 결재 서비스 분야에서 세계 1위를 달리고 있다. 제주에서도 중국인들이 많이 이용하는 주요 상권을 중심으로 위챗페이 도입이 늘고 있다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2018/12/10 16:50 송고 #텐센트 #중국 #제주 #관광 #전통시장 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 22 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 앱쇼코리아 박람회 참가 체험관 운영 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 앱쇼코리아 박람회 참가 체험관 운영 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회, 앱쇼코리아 박람회 참가 체험관 운영 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.12.22 16:05 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 20일부터 22일까지 서울 코엑스에서 열린 ICT(Information and Communications Technologies) 산업의 생태계를 망라하는 전문 비즈니스 ‘앱쇼코리아’ 박람회에 참가하여 제주지능형관광콘텐츠 홍보관 및 체험존을 운영했다.지능형관광콘텐츠란‘지능형콘텐츠’와 ‘관광산업’의 융합으로 제주도 관광서비스 만족도 향상을 위하여, 원하는 시기에 원하는 형식의 제주 관광정보를 제공해주는 새로운 제주도 관광 서비스의 비즈니스 모델이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광협회, 연말 김장김치 나눔활동 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광협회, 연말 김장김치 나눔활동 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광협회, 연말 김장김치 나눔활동 편집팀 iheadline@hanmail.net 승인 2018.12.23 11:45 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 21일 제주종합비즈니스센터에서 '2018 사랑의 김장김치 나눔활동'을 진행했다.이날 김영진 협회장을 비롯한 봉사단 50여명이 참여한 가운데 김장김치 250포기를 직접 담가 지역 내 예향원, 제주케어하우스, 애서원, 제주요양원, 제주보육원 등 사회복지시설에 전달했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도-텐센트, 스마트 관광 협약 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 하단 메뉴 바로가기 국가기간뉴스통신사 연합뉴스 배너 검색 영역 뉴스, 포토, 영상, 그래픽을 검색하실 수 있습니다. GO 비주얼 뉴스홈 영상 영상홈 영상뉴스 사건재구성 한반도N 많이본영상 날짜별영상 포토 포토홈 정치 북한 경제 산업 사회 전국 세계 문화 연예 스포츠 모멘트 화보 #D 그래픽 검색 열기 검색 닫기 포토홈 제주도-텐센트, 스마트 관광 협약 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 (제주=연합뉴스) 전성태 제주도 행정부지사(오른쪽 세 번째)와 장잉 중국 텐센트그룹 부총재(오른쪽 네 번째)가 10일 오전 제주도청에서 스마트 관광 업무협약을 체결하고 나서 관계자들과 함께 기념촬영을 하고 있다. 2018.12.10 [제주도 제공] khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2018/12/10 16:18 송고 '감사원 국감, 시작 9분만에 파행'…비어있는 의원석 10-11 10:45 '깊어가는 가을'…안산 갈대습지공원 10-11 12:02 '오늘부터 개량백신 접종 시작'…60세미만도 잔여백신 접종가능 10-11 09:57 '가을 위에 내려앉은 겨울'…태백 만항재 10-11 10:22 후나코시 다케히로 日 외무성 국장, 한일국장급협의 참석 10-11 10:29 댓글쓰기 맨위로 전체메뉴 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 사람들 인사 부고 동정 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 이슈돋보기 주요신문톱뉴스/사설 이 시각 헤드라인 날씨/재난 날씨 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이 본 뉴스 모바일 뉴스 모바일앱 모바일웹 비주얼뉴스 #흥 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷 맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 유튜브 연합뉴스 통통컬처 Korea Now 한반도N 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로2길 25 | 등록번호 문화, 나00009 | 등록일자 1980.12.29 | 발행일자 1980.12.29 | Tel. 02-398-3114 (C) Yonhapnews [대표이사] 성기홍 [편집인] 조채희 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 카카오스토리 서비스안내 전체보기 서비스안내 전체보기 닫기 연합뉴스 연합뉴스TV 인포맥스</t>
+  </si>
+  <si>
+    <t>제주도관광협회 종합쇼핑몰 '탐나오', 대한민국 인터넷 대상 수상 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도관광협회 종합쇼핑몰 '탐나오', 대한민국 인터넷 대상 수상 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도관광협회 종합쇼핑몰 '탐나오', 대한민국 인터넷 대상 수상 제주CBS 박정섭 기자 메일보내기 2018-12-03 10:36 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주도관광협회가 운영하는 제주여행 종합쇼핑몰 '탐나오'가 과학기술정보통신부 주최 제13회 대한민국 인터넷 대상 '사회진흥부문 ICT연합회장상'을 수상했다. 사회진흥부문 ICT연합회장상은 인터넷 서비스로 사회 문화발전과 공익 증진에 공헌한 단체에 수여되는 특별상이다. 탐나오는 제주도내 관광사업체의 온라인 홍보와 판매를 지원하기 위해 운영중인 온라인 서비스로 입점업체 1100여 곳과 함께 회원수 5만명을 돌파하며 지속 성장중이다. 제주도 항공과 숙박, 렌트카, 관광지, 레저 체험 및 특산품, 기념품을 웹사이트와 모바일 어플을 통해 한 곳에서 실속있게 비교하고 예약할 수 있다. 소비자 만족도가 높고 재방문과 재구매율도 증가하고 있다.탐나오 입점은 제주지역 관광사업체라면 누구나 가능하며, 언제든지 사이트 를 통해 입점을 신청할 수 있다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" '택시 연 매출, 배달업의 1/3에 불과' "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 군 "北 저수지 탄도미사일, 한미 '킬 체인' 의식"…실효성은 글쎄? 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>[기고] 저는 제주도 관광경찰입니다 &lt; 기고 &lt; 오피니언 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 [기고] 저는 제주도 관광경찰입니다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 오피니언 기고 [기고] 저는 제주도 관광경찰입니다 기자명 형청도					(news@jejusori.net) 입력 2018.12.03 09:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 2016년 2월 1일에 열린 제주자치경찰단에서 관광경찰 창설식 현장 모습. ⓒ제주의소리 자료사진 [기고] 제주특별자치도 자치경찰단 관광경찰과 형청도지난 2016년 2월 1일 제주도에도 관광경찰이 창설됐다. 제주도가 홍콩, 싱가포르 등 동북아 여러 유명 관광지에 절대 뒤지지 않을 연간 1000만명 이상의 명실상부한 국제관광지의 반열에 오른 것과 맞물려 자치경찰단에 관광경찰이 신설됐고 어언 3년여가 됐다.관광경찰의 임무는 막중하다. 연간 1000만명의 국내외 관광객이 넘쳐나고 자연스레  생활민원이 늘어났고 아울러 원하지 않은 각종 범죄 또한 늘어났다. 지난해 사드 여파로 중국 단체관광객이 많이 줄어들긴 했지만 국내 단체관광객과 동남아 개별·가족 관광객들이 그 자리를 메꿈으로써 올해도 8월말에 이미 1000만 명을 넘어섰다대다수 관광객처럼 선량하고 건전한 관광만 즐기다 가면 무슨 탈이 있으랴만 동서고금을 막론하고 사람 사는 세상에는 그 틈바구니를 비집고 반칙으로 돈을 버려는 사람이 있다. 단순한 반칙을 넘어 사회질서를 어지럽히는 나쁜 사람도 있다. 원산지위반, 부정식품, 무자격가이드, 미신고 숙박업, 무등록 여행업, 유상운송행위, 도심지 무단횡단, 쓰레기 오물투기 등 관광업계 질서를 어지럽히는 범죄의 종류도 다양하며 그래서 관광경찰의 임무가 막중한 것이다.창설 초기 단체관광객을 상대로 한 무자격 가이드가 기승을 부렸다. 우리 관광경찰의 강력한 단속으로 어느 정도 질서가 잡히자 이번에는 수법을 바꾸어 개별·가족 관광객을 상대로 한 점조직 형태의 아주 은밀하고 지능적인 무등록 여행업이나 유상운송행위가 늘고 있는 모양새다. 하지만 우리 관광경찰 또한 노하우로 그에 걸맞은 더욱 섬세하고 치밀한 단속으로 건전 관광질서를 바로잡아 나갈 것이다. ▲ 제주특별자치도 자치경찰단 관광경찰과 형청도. 한편, 올해 초 제주도 구좌지역 게스트하우스 살인사건으로 드러난 각종 불·탈법적인 변태 숙박업 또한 사회적으로 큰 충격을 주었다. 당시 우리 관광경찰 뿐만 아니라 국가경찰 그리고 도내 관련부서, 읍면동까지 나서서 민박업 전반에 대한 전수조사를 한 후, 안전인증제 운영 등 제도적인 뒷받침까지 추진되고 있는 상태다.이처럼 우리 관광경찰은 급변하는 관광환경 변화에 발 맞춰 앞으로도 더욱 지혜롭고 슬기로운 모습으로 2000만 관광객, 제주특별자치도의 든든한 관광 파수꾼이 될 것이다. 형청도 news@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>진도군, 제주도 ‘사후면세점’서 문화관광 홍보 &lt; 진도 &lt; 전남뉴스 &lt; 기사본문 - 남도일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스종합 종합 정치/행정 경제 사회 교육 문화 스포츠 사람들 빛가람 혁신도시 전남뉴스 동부권 중서부권 목포 여수 순천 광양 나주 담양 장성 함평 영광 무안 영암 강진 장흥 해남 완도 진도 신안 화순 곡성 구례 보성 고흥 기획특집 핫이슈 뉴스분석 혁신도시 집중점검 우크라 난민 보고서 광주·전남 100년 학교를 찾아서 전남미래, 섬과 바다 광주전남 종가 재발견 청년 취업난 해결방안 없나 k-포럼 남도일보가 만난 사람 강형구 작가의 야설천하 이계홍 소설 붉은 파도 사회혁신 현장을 가다 광주형일자리 청정 전남, 블루이코노미 2022 지방선거 누가뛰나 자치분권 현장 힐링!남도 스페셜남도 주말N 맛집 멋집 자연이야기 남도여행 축제 오피니언 사설 칼럼 오피니언 칼럼 월요아침 화요세평 독자권익위원회 독자투고 기고문 기자현장 포토 포토뉴스 여행 이슈&amp;이슈 스포츠 그래픽 남도 라이프 창업/취업 생활법률 반려동물 취미 ITㆍVR 남도 플러스 박람회 보험 자동차 부동산 재테크 지역 브랜드 남도PICK 학동참사 광주형일자리 블루이코노미 AI중심도시 신재생에너지 지방선거 5·18진상규명 전남뉴스 광주·전남 뉴스의 중심 모바일웹 구독신청 로그인 회원가입 구독신청 로그인 기사검색 검색 상세검색 동부권 중서부권 목포 여수 순천 광양 나주 담양 장성 함평 영광 무안 영암 강진 장흥 해남 완도 진도 신안 화순 곡성 구례 보성 고흥 + 본문영역 이전 기사보기 다음 기사보기 진도군, 제주도 ‘사후면세점’서 문화관광 홍보 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전남뉴스 진도 진도군, 제주도 ‘사후면세점’서 문화관광 홍보 기자명 하강수 기자 입력 2018.12.02 17:40 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 진도군, 제주도 ‘사후면세점’서 문화관광 홍보여행사 4곳 업무협약 체결전남 진도군이 외국인 관광객을 유치하기 위해 ‘사후면세점’에 진도아리랑 청정 농수산물 판매와 문화관광 홍보를 적극 추진한다.2일 진도군에 따르면 사후면세점은 중국과 베트남, 태국 등 외국인 관광객을 대상으로 하며, 제주국제공항 인근에 ‘해태 김 박물관’을 최근 개장했다.&lt;사진&gt;이를 위해 군은 해외 여행객을 전문으로 하는 여행사 4곳과 업무협약을 지난달 30일 체결하고 청정해역에서 생산된 진도 김, 진도 미역, 진도 울금 등 진도 농수산물을 판매하고 있다.특히 사후면세점 내부에 다양한 홍보 부스를 마련, 진도 신비의 바닷길 축제, 진도개 페스티벌 등 진도군 주요 축제와 운림산방, 세방낙조 등 주요 관광지 등도 함께 홍보하고 있다.사후 면세점인 ‘해태 김 박물관’은 1천386㎡ 면적에 진도 농수산물 판매 매장과 함께 수산물의 우수성을 체험하기 위한 체험 공간 등으로 구성돼 있어 외국인 관광객들로부터 ‘호평’을 받고 있다.진도군 관계자는 “자치단체에서 사후 면세점에 지역의 농수산물을 집중적으로 판매하고 축제와 주요 관광지 등을 홍보하는 사례는 이번이 처음이다”고 말했다.이어 “2019년 진도대명해양리조트 개장을 앞두고 다양한 관광 상품을 개발하는 동시에 지역의 농수산물을 홍보하고 외국인 관광객을 유치하는 데 힘쓰겠다”고 밝혔다.진도/하강수 기자 hgs@namdonews.com 하강수 기자 hgs@namdonews.com 다른기사 보기 "광주전남 지역민의 소중한 제보를 기다립니다"  기사제보 저작권자 © 남도일보 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 AI 아나운서 통해 강진군민 소식 전달 받아 강진군, 육아양육수당 사업 담당자 교육 "해남에서 가을 문화·예술 즐겨요" 해남군, 산이 파크골프장 준공 무안경찰, 위급상황 현장대응 경연대회 성료 강진군, 신규 공직자 워크숍 종료 인사말 소개 의회 보건소 Quick Menu 참여마당 민원안내 일자리 문화관광 지역특산품 지역정보 최신뉴스 AI 아나운서 통해 강진군민 소식 전달 받아 강진군, 육아양육수당 사업 담당자 교육 "해남에서 가을 문화·예술 즐겨요" 해남군, 산이 파크골프장 준공 무안경찰, 위급상황 현장대응 경연대회 성료 강진군, 신규 공직자 워크숍 종료 신안군지사協, 이웃돕기 캠페인 전개 신안군, 2022 대한민국 분재대전 오세요 "2040 무안의 미래 그리다" 코레일·SR, 간부급 경조사비 지원금만 15억5천만원 가장 많이 본 뉴스 오늘 주간 월간 1 12일부터 우회전 일시정지 단속… ‘혼선’ 여전 2 [2tv 생생정보 1655회]갈비곱창구이…갈비, 막창, 곱창 환상의궁합 군산, 고수의 부엌 3 한전, 3년만에 현장 국감…‘긴장감’ 팽배 4 경찰관 음주사고·추락·영아 사망…광주·전남, 한글날 연휴 사건·사고 속출 5 순천 낙안읍성 3년 만에 민속축제 열린다 6 KIA타이거즈, 4년 만에 가을야구 진출 7 광주·전남 국회의원들, 행안부 ‘특별교부세’ 결실 8 법원 경매시장서도 아파트 ‘거래절벽’ 9 국감 2주차, 유병호 문자·尹순방·文조사 등 핫이슈…주도권 쟁탈전 10 [남도일보 기고]한·미·일 해상훈련 방해한 김정은의 모험 1 12일부터 우회전 일시정지 단속… ‘혼선’ 여전 2 [2tv 생생정보 1654회]족발 무한리필, 불족발, 보쌈, 감자탕, 인천 남동구 맛집, 가격파괴Why 3 여수 앞바다서 기름 유출하고 도주한 컨테이너 선장 붙잡혀 4 광주지역도 역전세난에 집주인 ‘골머리’ 5 [2tv 생생정보 1653회]지금이 딱! 낙지탕탕이 연포탕 호롱구이 목포 맛집 씹을수록 고소한 가을낙지 6 [2tv 생생정보 1655회]갈비곱창구이…갈비, 막창, 곱창 환상의궁합 군산, 고수의 부엌 7 서창들녘 억새 은빛물결 장관 8 [2tv 생생정보 1652회]간장 코다리조림…25년 전통 독박골 전설의 맛집 9 광주 아파트 단지서 어린 아이 들이받은 운전자 입건 10 부풀린 감정평가액…전세보증보험 피해 급증 1 영유아 노리는 수족구병 확산세 거세다 2 ‘조정지역 해제 소용없는 전남 동부권... 아파트값 ‘뚝뚝’ 3 ‘하세월’ 이던 호남고속도로 첨단방면 연결로 개통 임박 4 철 모르는 모기…가을 불청객 된 이유는? 5 '집값 반등할까'... 조정대상 해제에 광주 부동산 매물 무더기 회수 6 순천고 총동문회 행사 중 60대 남성 사망 7 전남도립대 보직교수, 영산강서 숨진 채 발견 8 성범죄 피의자 붙잡고 경찰서 앞에서 놓친 여수경찰 9 [스페셜남도 주말N]다시 찾아온 가을축제, 남도의 맛과 멋을 함께 10 여수 4층 상가 화재…18명 전원 구조 인기뉴스 1 전남도립대 보직교수, 영산강서 숨진 채 발견 2 [스페셜남도 주말N]다시 찾아온 가을축제, 남도의 맛과 멋을 함께 3 광주·전남서 독버섯처럼 퍼진 ‘마약 중독’ 4 100년 역사 ‘화순 탄광’ 조기 폐광 대비책 마련된다 5 [프로야구 주간 전망] KIA타이거즈 가을야구 매직넘버 ‘3’ 6 12일부터 우회전 일시정지 단속… ‘혼선’ 여전 7 광주-대구파크골프연맹 ‘달빛동맹’ 친선교류 8 광주 중앙공원1지구 개발사업 내분 ‘일단락’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 top 매체정보 광주광역시 북구 무등로 204 중흥건설 2층/남도일보사 사업자번호 : 408-81-70427 대표전화 : 062-670-1000 청소년보호책임자 : 박재일 제호 : 남도일보 등록번호 : 광주 아-00189 등록일 : 2015-01-07 회장 : 정창선 사장·발행·편집인 : 박준일 주필 : 오치남 편집국장 : 박재일 남도일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 남도일보. All rights reserved. mail to namdoilbo@namdonews.com 위로 전체메뉴 전체기사 뉴스 전체 종합 정치/행정 경제 사회 교육 문화 스포츠 사람들 빛가람 혁신도시 IT/과학 기획 특집 국제 오피니언 연예 동부취재본부 전국 HOT 뉴스 613 지방선거 TV 따라잡기 전남뉴스 전체 동부권 중서부권 목포 여수 순천 광양 나주 담양 장성 함평 영광 무안 영암 강진 장흥 해남 완도 진도 신안 화순 곡성 구례 보성 고흥 기획특집 힐링!남도 전체 스페셜남도 주말N 맛집 멋집 자연이야기 남도여행 축제 문화해설사와 함께 전통시장 그곳에 가면 힐링 오피니언 전체 사설 칼럼 오피니언 칼럼 월요아침 화요세평 지자체장 칼럼 독자권익위원회 독자투고 기고문 기자현장 릴레이인터뷰 초대석 알림 포토 전체 포토뉴스 여행 이슈&amp;이슈 연예/방송 레이싱/자동차 스포츠 TOP 그래픽 동영상뉴스 전체 동영상뉴스 UCC동영상 남도특집 남도라이프 HOT이슈 유튜브남도일보 커뮤니티 전체 알림 인사 부고 사고 인기 쇼핑정보 보도자료 캠페인 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>경북관광공사, 경북 소울스테이 제주도 체험 워크숍 개최(정치/사회)-NSP통신 반복내용 건너뛰기(skip to main content) Korea Business News Agency - NSP통신 11th(2022.10.11 FILE)클럽NSPNSP구글뉴스NSP트위터NSP페이스북 NSP통신 뉴스전국NSP리포트소상공인포토/영상 메뉴검색기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회대통령실/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰탐방인사부고동정신상품/리뷰신상품체험리뷰해명/반론정치경제사회전국문화연예 기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회청와대/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰|탐방|인사부고|동정신상품/리뷰신상품체험리뷰해명/반론정치|경제|사회전국|문화|연예검색 search 검색 대통령실/중앙행정국회위/정당지자체/정당사회/단체 ▶ NSP통신 인천, 경기북부 등 전국지사 모집   한국의 경제뉴스통신사 - NSP통신 인쇄 확대 축소경북관광공사, 경북 소울스테이 제주도 체험 워크숍 개최2018-12-02 11:44, 권민수 기자 [XML:KR:1903:지자체/정당] #경주시 #경북관광공사 #소울스테이 워크숍 경북 대표 힐링스테이, 실무자 역량강화... 신규 프로그램, 발굴 아이디어 논의경상북도관광공사 소울스테이 워크숍 단체사진. (사진 = 경북관광공사) (경북=NSP통신) 권민수 기자 = 경상북도관광공사(이하 공사)는 경북 대표 힐링스테이인 소울스테이의 프로그램 발전을 위한 역량강화 워크숍을 지난 28일부터 30일까지 제주도일원에서 가졌다. 이번 워크숍은 소울스테이 실무자의 역량강화와 프로그램 발전을 위한 천주교 관련 관광콘텐츠 답사를 통해 프로그램 질적 향상을 도모하기 위해 추진됐다. 공사는 소울스테이 사업단 관계자, 기관별 실무자들은 관광객 대상으로 마련된 천주교 힐링 프로그램을 직접 체험하고 신규 프로그램 발굴을 위한 아이디어를 논의했다. 또한 사업 활성화를 위한 간담회를 개최해 각 기관별 프로그램을 점검하고 소울스테이 전국적 인지도 제고를 위한 홍보방안 등 내년도 추진 사업을 논의했다. 특히 이번 워크숍에서는 제주도에서 관광객 유치를 위해 추진하고 있는 천주교 순례길 중 김대건길, 이시돌길 등 주요 순례길을 답사했다. 답사에서 스탬프 투어 등 관광객 대상 프로그램을 체험해보고 소울스테이 관광홍보마케팅 접목방안을 모색하는 등 지속적인 콘텐츠 발굴을 위한 시간을 가졌다. 경상북도관광공사 이재춘 사장대행은“소울스테이의 활성화를 통해 경북의 힐링콘텐츠를 다양화 하는데 적극적인 노력과 지원을 아끼지 않겠다”고 말했다. NSP통신/NSP TV 권민수 기자, kwun5104@nspna.com저작권자ⓒ 한국의 경제뉴스통신사 NSP통신·NSP TV. 무단전재-재배포 금지. 카카오톡 카카오스토리 밴드 페이스북 트위터 네이버블로그 프린트 AdvertizementNSP통신 증권사 HTS/MTS 뉴스 공급NSP통신 200여 국가에 뉴스 공급NSP통신 전국지사모집녹제거/부식방지/윤활 방청윤활제 RX3-360오늘의 주요뉴스 한은 "9월 경상수지 흑자 가능성↑…월별 변동성 클 것" 외환보유액 '금융위기 후 최대폭 감소'…197억달러↓ 한은, "외식물가 오름세 지속 확대"...소비자물가, 상당기간 5~6%대 높은 오름세 전망 저축은행·보험사 부동산 PF 대출 5년 새 24조6천억원 증가 주요 금융회사, 기재부·금융위·금감원 출신 114명 대거 포진   네오위즈, 넷플릭스와 '고양이와 스프' 퍼블리싱 계약 체결 토스플레이스 오프라인 결제단말기 시범 서비스 시작 전주시·행안부, 21~22일 '지구사랑 두바퀴 대축제' 개최 대우건설, 우즈베키스탄 민관합동사업 공동추친 케이뱅크, 아파트 신규 구입자금 대출 선봬…'최저 연 3.18%' 테마기획 시승기 타보니 [타보니]르노 QM6 가솔린 모델, 승차감·파워·연비 좋은 ‘조용한 SUV’[타보니]DS 7 크로스백, 반응속도 빠르고 연비 좋은 ‘친환경 차’ NSP리포트더보기 케이뱅크, 아파트 신규 구입자금 대출 선봬…‘최저 연 3.18%’ 토스플레이스 오프라인 결제단말기 시범 서비스 시작 토요타코리아, ‘2022 토요타 서비스 캠페인’ 실시 현대차·테이트 미술관, 파트너십 일곱 번째 전시 신한은행, 뉴진스 손 잡고 ‘뉴 쏠’ 공개 NSP통신 전국지사모집 more 한국의 경제뉴스통신사인 NSP통신이 1월 1일부터 전국 지역 지사를 모집합니다. 모집지역 인천, 경기동부, 경기북부, 대전, 광주, 강원, 충북, 전북, 울산, 경남, 경남서부, 제주 등 모집문의 [상세보기] 070-7599-1620 okyes@nspna.com, 지원서(hwp) 회사소개 회사연혁 저작권규약 광고 및 컨텐츠제휴문의 고충처리 채용안내 전국취재본부및지사 연락처 구글뉴스 트위터 페이스북 (07236) 서울시 영등포구 국회대로750 금산빌딩 3층 | TEL: (02)3272-2140~2 | FAX: (02)3272-2144 3F 750, Gukhoe-daero, Yeongdeungpo-gu, Seoul, 07236 Republic of Korea | TEL: +82-2-3272-2140~2 | FAX: +82-2-3272-2144 등록번호: 문화 나 00018호 | 등록일자: 2011.6. 29 | 발행인: 김정태 | 편집인: 류수운 | 고충처리인: 강은태 NSP통신·NSP TV의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재.복사.배포를 금합니다. ⓒ (주)NSP뉴스통신사. All rights reserved. ❝ NSP통신은 한국의 경제뉴스통신사입니다. 클린미디어운동-NSP통신은 보도자료 전송서비스를 하지 않습니다. ❞ Capture mode Home Top</t>
+  </si>
+  <si>
+    <t>일본 ‘한의웰니스 관광단’, 제주도서 한의진료 등 체험 &gt; 뉴스 | 한의신문 주메뉴 바로가기 본문 바로가기 즐겨찾기추가 2022.10.11 (화) 속초17.5℃ 11.7℃ 철원11.1℃ 동두천12.2℃ 파주12.9℃ 대관령11.0℃ 춘천13.0℃ 백령도14.1℃ 북강릉18.2℃ 강릉19.3℃ 동해18.8℃ 서울13.2℃ 인천12.7℃ 원주11.7℃ 울릉도15.4℃ 수원13.7℃ 영월10.9℃ 충주11.0℃ 서산15.8℃ 울진16.4℃ 청주14.3℃ 대전15.5℃ 추풍령12.6℃ 안동13.1℃ 상주15.1℃ 포항16.5℃ 군산16.1℃ 대구15.6℃ 전주15.7℃ 울산16.4℃ 창원17.1℃ 광주17.1℃ 부산18.7℃ 통영19.1℃ 목포15.8℃ 여수17.1℃ 흑산도16.2℃ 완도18.5℃ 고창16.2℃ 순천15.9℃ 홍성(예)16.0℃ 13.6℃ 제주18.5℃ 고산16.5℃ 성산17.7℃ 서귀포18.6℃ 진주18.1℃ 강화13.5℃ 양평13.4℃ 이천13.7℃ 인제9.8℃ 홍천12.6℃ 태백13.0℃ 정선군12.9℃ 제천11.4℃ 보은13.1℃ 천안13.6℃ 보령16.6℃ 부여16.9℃ 금산14.4℃ 14.5℃ 부안16.3℃ 임실15.0℃ 정읍15.5℃ 남원15.5℃ 장수14.4℃ 고창군16.2℃ 영광군15.7℃ 김해시18.5℃ 순창군15.4℃ 북창원17.5℃ 양산시19.2℃ 보성군17.9℃ 강진군18.3℃ 장흥18.2℃ 해남17.0℃ 고흥17.3℃ 의령군19.1℃ 함양군17.4℃ 광양시18.5℃ 진도군16.5℃ 봉화12.4℃ 영주12.7℃ 문경13.0℃ 청송군14.1℃ 영덕16.4℃ 의성14.8℃ 구미16.0℃ 영천16.1℃ 경주시16.3℃ 거창16.6℃ 합천18.3℃ 밀양17.8℃ 산청17.0℃ 거제17.5℃ 남해17.5℃ 문의하기 로그인 전체기사 뉴스 정책,행정 학술,한약 지부,대학 단체,봉사 커뮤니티 사람과사람 인터뷰 기고 임상연구 칼럼 세무/노무/법률 기획/연재 사설 포토뉴스 포토뉴스 카드뉴스 동영상 한의만평 감초툰 PDF신문 웹진 기사제보 기사검색 이전 다음 일본 ‘한의웰니스 관광단’, 제주도서 한의진료 등 체험 기사공유하기 해당된 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 라인 네이트온쪽지 C로그 URL복사 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 전체기사 홈 뉴스 전체기사 일본 ‘한의웰니스 관광단’, 제주도서 한의진료 등 체험 김대영 기자 등록 2018.12.07 10:10 목록 메일 프린트 글씨크기 크게 글씨크기 작게 일본 현지서 진행한 한의웰니스 관광 설명회 성과 [한의신문=김대영 기자] 일본인 '한의웰니스 관광단'이 지난 11월30일 2박3일 일정으로 제주를 방문한데 이어 2차 관광단이 7일부터 오는 9일까지 제주에서 한의 진료를 포함한 다양한 한의약 체험을 하게 된다. 이는 올해 제주한의약연구원(원장 송상열)이 일본 오사카에서 3차례 한의웰니스 관광 설명회를 개최해 현지인들에게 제주지역 한방의료기관 특화 프로그램과 제주 웰니스 관광 프로그램을 홍보하고 일본 내에서 한일교류협회(대표 황성휘)와 한방스타일협회(대표 마에다 신지)를 통해 참여자를 모집, 고려의료관광개발 제주지사(지사장 김병효)와 함께 프로그램을 진행하고 있는 것이다. 제주 한의웰니스 프로그램 참가자들은 지난달 개관한 제주 한의약홍보 체험관을 방문해 한의사 진료 상담과 한의약 체험 프로그램(향주머니 만들기 등)에 참여한다. 또 제주지역 한의원 진료 외에 한의약 세미나, 제주 전통음식 체험, 제주 전통시장 방문, 검은오름 탐방 등을 하게된다. 제주한의약연구원 송상열 원장은 “오사카 한의웰니스 관광 설명회에서 소개된 제주 한의웰니스 프로그램에 대한 관심이 실제 제주 방문과 한의 진료로 이어졌다”며 “한의진료 프로그램과 청정 자연 및 제주 문화가 연계된 제주형 한의웰니스 프로그램 상품을 다양하게 개발, 지속적으로 일본 내 모집과 홍보를 강화함으로써 일본인 한의 환자 유치에 나설 예정”이라고 밝혔다. 김대영 기자 페이스북 트위터 구글+ 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 C로그 보내기 구글 북마크 URL 복사 가장 많이 본 뉴스 1사무장병원 환수결정 후 미징수금액 ‘1조7517억원’ 2(신간) 생명의 벗, 약초/이야기로 배우는 우리 본초학 3복지부, 비의료 건강관리서비스 12개 시범 인증 4강남구분회, '국제평화마라톤대회'서 의료봉사 5한의의료행위, 급여화 및 신의료기술 등재 전략은? 6"한의원의 혈액검사, 건강보험 급여화 필요” 7보건복지인재원, '공직한의사 위한 한의약건강증진과정' 교육 실시 8“한의약은 4차 산업혁명·글로벌 시장서 중요한 자원” 9국가 주도 정책 피해 호소한 복지위 국감 참고인들 10“보건의료·바이오헬스 빅데이터 연계를 통한 협력체계 구축” 카드뉴스 감초툰 조선시대에도 정신과… 비염치료 한의학으로… 알츠하이머 침치료로… PrevNext -‘환절기가 왔어요… -'한의사에게 키란… -'건강하게 돌아오… PrevNext 사람과사람 더보기 “눈높이 한의학 교육… 아이들과 친해져” 편집자 주 올해 4월부터 완도군 군외보건지소에서 공중보건한의사로 근무하고 있는 심수보 한의사는 2018년 원광한의대를 졸업한 후 대전대학교 대전한방병원에서 한방소아과 전문... “한의진료실에서 치료 후 ‘한의학 마니아’된 환자들 가장 기억에 남아” “늘 새로운 정보와 지식으로 교류의 폭을 넓힐 것” CPG 인증·확산으로 한의의료의 질 향상 기대 “R프로그래밍, 보건의료데이터 활용에 좋은 도구” 세련되고 친숙한 한의약 이미지 전파 위해 교의사업 참여 동영상뉴스 더보기&gt; [한의약 이슈 브리핑] 보건복지부 국정감사.. "한의의료기관 혈액검사, 보험 급여화 필요" 주영승 교수의 한약재 감별정보 &lt;4&gt; 천궁 [한의약 이슈 브리핑] 대한한의사협회 중앙·지부 임원 역량 강화 대회 개최 [한의약 이슈 브리핑] 금산군보건소 코로나19 비대면 한의진료, 만족도 84% 행사 22/10/15 경기지부 창립 80주년 기념식 22/10/22~31 대한한방부인과학회 학술대회 22/11/6 대한한방소아과학회 학술대회 22/10/5~7 한국한의약진흥원 한의약기술개발사업단 전문가 교육 22/10/1 대한여한의사회 학술세미나 21/9/18 서울지부 임상특강 신문사소개 찾아오시는 길 개인정보취급방침 청소년보호정책 (책임자 : 이규철) 이메일 무단수집거부 광고문의 기사제보 문의하기 RSS 신문사업등록번호 : 서울 다07258 / 등록일자 : 2005.12.20. / 창간일자:1967.12.30.인터넷신문사업등록번호 : 서울 아04023 / 등록일자 : 2016.1.26. / 창간일자:2004.3.2.제호 : 한의신문 / 발행인 : 홍주의 / 편집인 : 황병천 / 청소년보호책임자 : 이규철발행소(주소) : 서울시 강서구 허준로 91(가양동 26-27) 대한한의사협회TEL : 02-2657-5087 FAX : 02-2657-5004 © Copyright 2005 한의신문 All Right Reserved 최종편집: 2022.10.11 11:46 최상단으로 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 외국인 의료관광객 한정 국내 첫 영리병원 개원 허가 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 외국인 의료관광객 한정 국내 첫 영리병원 개원 허가 등록 2018.12.05 14:40:47 작게 크게 【제주=뉴시스】우장호 기자 = 원희룡 제주특별자치도지사가 5일 오후 제주도청 3층 기자실에서 진료 대상을 '외국인 의료관광객'으로 한정하는 조건부 녹지국제병원 개설 허가를 발표하고 있다. 2018.12.05. woo1223@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 울산시교육청, 사립유치원 42개원 종합 지도·점검 창원시, 150억 규모 동읍 농촌중심지 활성화 사업 추진 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>서귀포 치유의 숲, 제주도 최우수 공영관광지 선정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 서귀포 치유의 숲, 제주도 최우수 공영관광지 선정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 서귀포 치유의 숲, 제주도 최우수 공영관광지 선정 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.12.05 17:27 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 공영관광지 운영평가위원회 심의 결과 서귀포시 소재 '치유의 숲'이 최우수 공영관관지로 선정됐다고 5일 밝혔다. 이번 평가는 공영관광지 32개소에 대해 지난 5월부터 11월까지 제주도관광협회에 위탁해 평가를 진행됐다. 우수 공영관광지에는 기당미술관과 서귀포천문과학문화관, 장려에는 붉은오름 자연휴양림과 제주돌문화공원, 민속자연사박물관이 각각 선정됐다.공영관광지 운영평가에 참여했던 위원들은 이번 평가를 통해 지난해와 비교해 관광지 편의시설 확충과 근무자 친절도 분야에서 크게 개선된 모습을 보였다고 밝혔다.또, 지난해 운영평가 지적사항에 대한 개선은 물론, 자체 친절교육 실시, SNS 등 스마트 홍보강화, 관광지 정비 등 관광지 만족도 제고를 위한 각 관광지의 적극적인 의지를 엿볼 수 있었다고 평가했다.양기철 제주도 관광국장은 "이번 평가결과를 공영관광지에 통보해 우수 관광지에 인센티브를 제공하고, 이를 모범 사례로 삼아 서비스 개선방안 등을 마련해 품격 있는 공영관광지의 면모를 갖출 수 있도록 노력해나가겠다"고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 탐나오, 대한민국 인터넷대상 수상 &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 탐나오, 대한민국 인터넷대상 수상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제주도관광협회 탐나오, 대한민국 인터넷대상 수상 기자명 고영진 기자 입력 2018.12.03 16:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 김영진)는 중소기업중앙회에서 과학기술정보통신부 주최로 열린 제13회 대한민국 인터넷 대상 시상식에서 현재 운영 중인 제주여행 종합쇼핑몰 '탐나오'가 사회진흥부문 ICT연합회장상을 수상했다고 3일 밝혔다.이번 수상은 전문가를 통한 서류, 면접 등 모두 3차에 걸쳐 선정됐으며, 인터넷 서비스로 사회 문화발전 및 공익 증진에 공헌한 단체에 수여하는 특별상이다.탐나오는 제주도내 관광사업체의 온라인 홍보와 판매를 지원하기 위해 제주특별자치도의 지원을 받아 운영 중인 온라인 서비스로 입점업체 1100여곳과 함께 회원 수 5만명을 돌파하며 성장 중이다. 고영진 기자 kyj@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 오션힐스 아파트형 도시형생활주택, 상가 분양 &lt; 생활문화 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 오션힐스 아파트형 도시형생활주택, 상가 분양 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 생활문화 제주도 중문관광단지 오션힐스 아파트형 도시형생활주택, 상가 분양 기자명 송영두 기자 입력 2018.12.05 15:41 수정 2018.12.05 15:42 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도 서귀포시 대포동 일대에 중문 오션힐스 아파트형 도시형생활주택이 분양중에 있다. 제주도 중문 오션힐즈는 5층 한 개동 56세대로 건축되어 있다. 제주 중문 오션힐스 아파트형 도시형생활주택은 이미 준공이 나서 즉시 입주가 가능하다. 중문 오션힐스는 중문관광단지 중심에 위치해 있는데 중문관광단지는 연간 700만명 이상의 관광객이 드나드는 곳이다. 신라호텔, 롯데호텔, 하얏트리젠시호텔, 켄싱턴 호텔, 중문cc 등 종사자들만 아니라 관광객들의 임대 수요도 흡수할 수 있다. 제주 중문 오션힐스 아파트형 도시형생활주택은 하나로마트, 중문 오일장, 중문cc등이 차량 5분거리에 있고 초·중학교를 도보 5분 거리에서 통학할 수 있다. 제주국제학교 또한 차량 20분대 거리에서 통학이 가능하다. 제주 중문 오션힐스 아파트형 도시형생활주택은 보안을 위해서 CCTV 46대를 설치했고 강화된 내진설계 시스템과 태풍 피해 방지 배수시스템을 따로 적용했다. 제주 중문 오션힐스 아파트형 도시형생활주택은 오피스텔과 다르게 전용률이 굉장히 높고 한라산과 마라도 조망권이 확보된 옥상 공원 또한 있다. 제주도는 신화역사공원, 헬스케어타운, 서귀포 관광미항, 서귀포 신공항, 첨단과학기술단지등개발이 추진이 되고 있거나 예정되어 있다. 제주 중문 오션힐스 아파트형 도시형생활주택은 2룸형의 합리적인 설계와 최신 시스템을 적용했다. 제주도 중문 관광단지는 숙박시설, 음식점이 가장 밀집되어 있는 곳으로 제주 중문 오션힐스 도시형생활주택 역시 편리한 생활을 누릴 수 있을 전망이다. 제주 중문 오션힐스 상가 또한 분양을 진행하고 있어서 대표번호로 미리 문의를 주는 것이 좋다. 제주 중문 오션힐스는 현지에 분양 사무실이 있으며 사전 예약 하면 원활한 관람이 가능하다. 저작권자 © 금강일보 무단전재 및 재배포 금지 송영두 기자 admin@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 선우은숙 나이, 전 남편 누구? [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 유영재 프로필 화제, 누구길래? 시사 지역 문화·연예 01 [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 02 전장연, 4호선 지하철 시위 11일 화요일도 강행 03 [내일 날씨] 전국 기상청 일기예보, 아침 최저기온 3도 연휴 뒤 출근길 더 추워...점차 맑은 하늘 회복 04 대전·세종 ‘끝없는 부동산 빙하기’ 05 대전·세종 ‘끝없는 부동산 빙하기’ 06 버킷스튜디오 주가 급락, 이유는? 07 제13회 대전효문화뿌리축제 성료 08 시중자금 은행 쏠림, 반작용 우려 09 1호선, 유튜브 자주 끊기는 이유 10 “지속가능한 대학 최선 다할 것” 11 [2022 국감] 사이버범죄 수사관 1인당 200건 사건 담당 12 피플바이오, 주가 강세 보여 13 비난·논란 자초하는 대전시의회 14 국민 허리띠 졸라매는데 공기업은 특혜… 전체보기 01 예산군, 예산장터 삼국축제서 나무 나눠주기 행사 02 단양군, 법정 계량기 정기검사 실시 03 영동군, 어르신 독감예방접종 12일부터 연령별 순차접종 04 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 05 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 06 보은署, 아동안전지킴이 대상 응급처치 교육 실시 07 보은군 삼승면지사체, 독거노인 주거환경 개선 사업 앞장 08 보은 동광초, 초록학교 활동 전시회 열어 09 옥천군 정신건강 홍보주간 운영 10 세종 갈산서원서 가을 수놓는 국악 선율 11 [동정] 보령시장 12 금산군, 우수 평생학습도시 선정 13 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 14 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 전체보기 01 선우은숙 나이, 전 남편 누구? 02 유영재 프로필 화제, 누구길래? 03 임영웅, ‘TMA 5관왕’ 04 박수홍 엄마 ‘카레사건’ 재조명 05 ‘복귀’ 홍진영, 근황은? 06 송가인 콘서트, 목포 다음은 천안 07 임창정 걸그룹 미미로즈, “200억 다 어디갔어?” 08 ‘공효진♥’케빈오 프로필은? 09 골프선수 박결, 국내 톱스타와 불륜설에... 10 '스맨파' 새삥 안무 표절 논란 뭐길래? 11 고두심 아들 김정환 누구? 12 ‘환승연애2’ 최초 유포자에 고소장 제출 13 비비, 비키니 끈 풀려 대형 노출사고 날 뻔... 14 '여성 골퍼와 불륜설'에 비·조정석 뿔났다 전체보기 가장 빠른 충청뉴스 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 대천해수욕장에서 15~16일 양일간 ‘2022 제1회 보령 AMC 모터페스티벌’을 개최한다.보령시가 주최하고 아주자동차가 주관하는 이번 축제는 차량 튜닝, 전시, 모터스포츠 등 자... [동정] 당진시장 [동정] 보령시장 [동정] 서산시장 스포츠 뉴스 이정후 여동생 누구길래? 고우석과 결혼 이대호 와이프 신혜정 눈물...‘왜?’ '레전드' 카시야스-푸욜, 게이설 불러 일으킨 커밍아웃 헤프닝 괴물 김민재, 파워랭킹 7위 랭크 윤이나 징계에 박세리, ‘변명은 절대 있을 수 없다’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 中 관광객 마케팅 방안 모색 한중 세미나 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 中 관광객 마케팅 방안 모색 한중 세미나 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 中 관광객 마케팅 방안 모색 한중 세미나 개최 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.12.05 17:05 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 7일 오후2시 라마다프라자 호텔에서 중국 관광트렌드 변화와 온라인 마케팅 전략 수립을 위한 한중 국제세미나를 개최한다.이번 세미나에는 중국 아웃바운드 시장의 미래 환경변화를 예측하고 중국 관광트렌드 변화에 맞춰 온라인 마케팅, 바이럴 마케팅 등 차별화된 마케팅 전략 수립을 위해 씨트립(Ctrip), 투니우(途牛)，마펑워(马蜂窝) 등 중국대표 여행사 마케팅 전문가와 한국 문화관광연구원 전문가들이 참석한다. 모여 논의의 장을 마련할 예정이다. 세미나에서는 중국 개별관광(FIT)시장을 겨냥한 매력적인 개별관광 목적지로서 제주도의 포지셔닝 리브랜딩(Rebranding) 방안이 모색된다. 제주도 관계자는 "이번 세미나를 통해 중국 관광업계의 경험과 관점을 청취하고, 중국 온라인 마케팅 특징, 활용사례 등 다양한 내용을 검토해 제주의 대중국 온라인 마케팅에 활용할 계획"이라고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>경상북도관광공사 경북 대표 힐링프로그램인 `소울스테이` 역량강화 워크숍 제주도일원에서 가져 - 매일신문 2022-10-11 (화) 지면보기 기사제보 로그인 회원가입 최신기사 오피니언 정치 경제 사회 국제 문화 스포츠 연예 라이프 포토·영상 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 경상북도관광공사 경북 대표 힐링프로그램인 '소울스테이' 역량강화 워크숍 제주도일원에서 가져 이채수 기자 cslee@msnet.co.kr 매일신문 입력 2018-12-05 15:05:45 수정 2018-12-05 15:05:25 0 가 가 페이스북 트위터 카카오스토리 밴드 네이버블로그 카카오톡 라인 URL복사 천주교 순례길 중 김대건길, 이시돌길 등 주요 순례길 답사 스탬프 투어 등 관광객 대상 프로그램 체험. 경북관광공사는 지난 28일부터 3일간 제주도에서 경북대표 관광힐링프로그램인 '소울스테이' 역량강화 워크숍을 가졌다. 사진은 제주 선샤인호텔에서 열린 워크숍 후 단체사진. 경상북도관광공사는 경북 대표 힐링프로그램인 '소울스테이'의 발전을 위한 역량강화 워크숍을 제주도 일원에서 가졌다고 3일 밝혔다.이번 워크숍(11월28~30일)은 소울스테이 실무자의 역량강화와 프로그램 발전을 위한 천주교 관련 관광콘텐츠 답사를 통해 프로그램 질적 향상을 도모하기 위해 추진됐다.경북관광공사 소울스테이 사업단 관계자와 기관별 실무자들은 관광객 대상으로 마련된 천주교 힐링 프로그램을 직접 체험하고 신규 프로그램 발굴을 위한 아이디어를 논의했다.또 사업 활성화를 위한 간담회를 개최하고 기관별 프로그램 점검과 소울스테이의 전국적인 인지도를 높이기 위한 홍보방안 등 내년도 추진 사업을 논의했다.이와 함께 제주도에서 관광객 유치를 위해 추진하고 있는 천주교 순례길 중 김대건길, 이시돌길 등 주요 순례길을 답사하고 스탬프 투어 등 관광객 대상 프로그램을 체험하는 시간을 가졌다. 경상북도관광공사 이재춘 사장대행은 "소울스테이는 경북의 대표 힐링스테이로 이번 워크숍을 통해 기관별 실무자의 역량 강화는 물론 새로운 프로그램들이 개발돼 힐링 수요 관광객에게 큰 만족을 줄 것으로 기대한다"며 "소울스테이의 활성화를 통해 경북의 힐링콘텐츠를 다양화하는데 적극적인 노력과 지원을 아끼지 않겠다"고 말했다.소울스테이는 천주교 휴양시설인 피정의집, 수도원, 복지시설 등에서 명상과 기도, 봉사활동 등의 프로그램을 일반인들도 쉽게 체험할 수 있도록 만든 맞춤형 테마관광 상품이다. 현재 경북 내 14개 기관이 시행하고 있는 대표 힐링스테이 프로그램이다. 경북관광공사는 지난 28일부터 3일간 제주도에서 경북대표 관광힐링프로그램인 '소울스테이' 역량강화 워크숍을 가졌다. 사진은 제주 이시돌길 '새미은총의동산'에서 워크숍 참가자들이 단체사진을 찍고 있다. 네이버TV구독 + 유튜브구독 + 최신 기사 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 많이 본 뉴스 일간 주간 월간 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 [영상] "삼성전자 입주 키이우 건물 러 미사일 폭격 피해"…우크라 정부 "폭발로 최소 8명 사망" 北미사일 발사장에 나란히 선 김정은 부부…귀막고 눈 찡긋 수서~포항 KTX 운행 연내 성사되나…원희룡 "적극 검토할 것" 푸틴의 보복?…우크라 키이우 70일만 미사일 공습 "사상자 발생" 새마을운동중앙회장 맡아 다시 현역으로 돌아온 곽대훈 전 의원 구미 원룸서 40대 여성 숨진 채 발견...살해 용의자 현장서 긴급체포 [대구 시월] "더는 쌀을 구할 방법이 없다"…그해 10월은 민생고가 빚어낸 '폭풍' 경주시립미술관 예정 부지 외지고 유동인구 적어…'유령미술관' 우려 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지더보기 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 칠곡경북대병원 간호사 퇴사 70% '입사 1년차' 구미 年 4천억 매출 기업, 화마로 '셧다운'…지역경제 타격 불가피 대구 'MBC네거리' 새명칭 선정 난항…연내에 다시 논의하기로 홍준표 시장 "대구 미래 산업 될 신수종산업 유치, 반도체 대기업과 협상 중" 등산하다 굴렀다던 아내…알고보니 남편에게 맞아 숨졌다 대구 아파트 전세값 '뚝뚝'…하락폭 비수도권 광역시 '최대' 홍준표, 尹·김건희 풍자 '윤석열차' 두고 "표현의 자유" '尹 식사하느라 英여왕 조문 못했나' 질문에 박진 외교장관, 적극 부인 못해더보기 대전 현대 프리미엄아울렛 화재…지하주차장서 전기차 폭발 추정 호텔수성 또 소송?…이번엔 주차장 갈등, 수성구청 "소송 불사" 전국 어디든 '1시간 50분대'…성주군, 6방향 사통팔달 도시로 태풍 '힌남노' 폭우, 주택 앞마당에 묻어둔 현금 항아리 깨져 "30cm 처마 값으로 45억원 내놔라니"…두류동 재개발 '공중 알박기' 논란 대구 수성못 주변 주상복합 취소 소송, 수성구청 최종 승소 국내 대표 방위산업체 'LIG넥스원·한화시스템' 구미에 4천억 푼다 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" 13호 태풍 므르복 日 남쪽 아닌 멀리 태평양서 발생 임박 "14호 난마돌 발생 여부 주목" 로또 1033회 1등 당첨지역은? 인천 부평구서만 2곳, 충청 3곳 선전더보기 이슈&amp;뉴스 美 출장은 이재명 수사 목적 주장에 한동훈 "내부 고발 하나" 민주당 "이재명 두산그룹 후원 유치, 칭찬할 일" '포항 참사' 숨진 중학생, 市보험금 못 받아 논란 초등학생 청소 밀대로 때린 교사…3천만원대 합의에도 실형 손톱 10개 합친 길이만 13m…25년째 안 자른 사연은 댓글 많은 뉴스 10 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지 5 안철수 "유승민, 당대표 출마 힘들 것…나는 尹 정부 연대보증인" 5 나경원, 이재명 겨냥 "한미일 훈련이 국방참사라니…北에 당하란 말인가" 5 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 3 "경북지역 노후 저수지 3200곳, 언제 터질지 모른다" 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 회사소개 광고안내 구독신청 고충처리인운영규정 청소년보호정책 개인정보처리방침 사업제휴 편집윤리규정 윤리자율규제지침 윤리실천요강 본사 : 대구광역시 중구 서성로20 (계산 2가 71번지) 매일신문사 (우 41933) : TEL : (053) 255-5001~7 경북본사 : 경북 안동시 풍천면 수호로 63, 3층(우 36759) : TEL : (054) 855-1700 서울지사 : 서울특별시 중구 세종대로 124 (태평로 1가 25) 한국프레스센터 1801호 (우 04520) : TEL(02) 733-0755~6 인터넷신문등록번호 : 대구,아00201 등록일자 : 2016.11.28 발행인 : 정창룡, 편집인 : 정창룡 Copyright ⓒ MAEIL, All right reserved 댓글 삭제 Close 댓글삭제</t>
+  </si>
+  <si>
+    <t>제주도 여행플랫폼 '제주지니' 인기비결… 서비스에 관광객 반응 신속 반영 - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 정치 전국 국제 제주도 여행플랫폼 '제주지니' 인기비결… 서비스에 관광객 반응 신속 반영 발행일 : 2018-12-02 12:00 지면 : 2018-12-03 24면 제주은행의 제주도 여행 플랫폼 '제주지니'가 제주도 현지 주민이 직접 추천한 맛집을 소개하는 등 차별화된 콘텐츠와 사용자 반응을 서비스에 신속하게 반영, 관광객으로부터 큰 호응을 얻고 있다. 제주은행은 지난 7월 6일 제주지니를 운영한 이후 지난 달 22일 기준 누적 다운로드수 77만을 달성했다. '제주도민 추천 맛집 서비스'에 이어 중국어 서비스·핸즈프리서비스 등 관광객 입장을 고려한 콘텐츠를 선보이면서 관심을 끌고 있다. 제주은행은 지난달 1일 제주지니에 중국어 서비스를 오픈했다. 지난 20일엔 여행객이 무거운 짐을 들고 다니지 않고, 원하는 목적지까지 안전하게 운반해 주는 핸즈프리(짐 옮김) 서비스도 선보여 제주 여행길을 한결 가볍게 해 주고 있다. 추가로 맛집 대기시간 확인·예약서비스, 엑티비티 예약 서비스를 선보일 예정이다. 제주지니가 주목받는 이유는 콘텐츠 차별화에만 있지 않다. 제주지니는 웨이브(WAVE) 1, 2, 3이란 단계별 구축 프로세스 내에서 스크럼 개발 방법론을 활용해 서비스를 점진적으로 구축하고 있다. 현업 담당자, UI·UX디자인 업체, 개발업체가 스크럼 팀을 구성해 웨이브별 핵심 서비스를 단계적으로 출시하고, 지속해서 서비스 개선 작업을 진행하고 있다. 현재 웨이브 3단계에선 맛집대기, 엑티비티 예약 서비스를 구축하고 있다. 기존 구축 프로젝트 대부분은 전체 서비스를 한 단계로 묶는 폭포수 개발 방법론을 선택, 진행해왔다. 금융권은 이로 인해 프로젝트 시작 시점과 종료 시점 간에 시간차가 벌어지는 탓에 서비스 출시 시점에 고객의 요구 변화에 발빠르게 대응하지 못하는 단점을 안고 있었다. 서비스를 빠르게 출시하고 사용자 반응을 서비스에 지속 반영하는 데 한계가 있었던 것이다. 디지털에이전시 유플리트 김병규 차장은 “제주지니 프로젝트를 진행하면서 스크럼 개발 방법론을 통한 활발한 의견교환 덕분에 불필요한 재작업을 최소화하고 핵심업무에 집중하는 등 프로젝트를 보다 효율적으로 진행할 수 있었다”고 말했다. 제주은행 측은 “구축 업체와 애자일한 협업을 바탕으로 한 프로젝트 수행이 서비스 경쟁력을 높이는 좋은 토대가 된다는 점을 확인했다”면서 “스크럼방법론 정교화를 통해 보다 성공적인 서비스를 선보인다”고 밝혔다. 안수민기자 smahn@etnews.com 이번 주 HOT 콘텐츠 AI와 빅데이터, 어디까지 활용해봤니? RPA의 성장에 실패한 기업들이 간과했던 여섯 가지- 역량 내재화와 프로세스 자동화 CoE를 중심으로 BRAND NEWSROOM 한국무라타전자한국무라타전자, 국내 최대 전자·IT 전시회 '한국전자전' 참가한국무라타전자(대표이사 요시오카 켄이치)는 오는 10월 4일부터 7일까지 개최되는 국내 최대 전자·IT 전시회인 한국전자전(KES 2022)에 참가한다고 13일 밝혔다. 마이스터즈천홍준 마이스터즈 대표, "대기업·중소기업과 소비자까지, 모두의 ‘ESG’ 함께 하겠다"'4차산업'이라는 이름 아래 산업계가 탄력적으로 변화하고 있다. 특히 상품이나 서비스는 물론 조직구조나 인력활용 면에서도 상당한 유연성을 보인다. 여의시스템여의시스템, 인텔 vPro 기술 기반 원격 관리 및 모니터링 ELMS 솔루션 론칭스마트팩토리/자동제어 솔루션 리딩 기업 ㈜여의시스템이 인텔의 파트너 프로그램인 MRS (Market Ready Solution) 을 통해 인텔 vPro 기술 기반 엣지 라인 원격 관리 및 모니터링 솔루션인 ELMS를 성공적으로 런칭 하였다고 밝혔다. 유니온커뮤니티유니온커뮤니티-스위스 바이오인식 TBS, 유럽 시장 확대 MOU 체결국내 최대 멀티모달 생체인식 보안 솔루션기업 유니온커뮤니티(대표 신요식)는 스위스 바이오식 기술 전문 TBS(Touchless Biometric Systems) AG와 MOU를 체결했다고 30일 밝혔다. 시큐어링크시큐어링크, AI 기술 접목한 고성능 UTM 출시 예정시큐어링크(대표 고준용)는 자사의 특허기술인 행동분석 랜섬웨어 차단 엔진을 기반으로 AI 기술을 접목, 엔드포인트 및 네트워크 등 다양한 인프라에 적용가능한 UTM 신제품을 준비중이라고 7일 밝혔다. 버넥트버넥트, XR 엔터테인먼트 사업 본격 시동버넥트(대표 하태진)는 기존의 산업용 XR 솔루션 사업을 넘어 XR 엔터테인먼트 사업에 본격적인 시동을 걸었다고 29일 밝혔다. 많이 본 뉴스 1 '갤럭시S23', 카메라로 아이폰14 잡을까 2 베트남 넷플릭스 1위 달리던 ‘작은 아씨들’, 돌연 방영 중단…이유는? 3 'ㅅㅏㅁㅅㅓㅇ', 삼성전자 한글날 맞아 한글 로고 선보여 4 저 얼음 밑에 생명체?... 목성 위성 '유로파'의 선명한 주름 5 LG전자, 3분기 영업이익 7466억원...매출은 역대 최고 BIZPLUS 디지털전환을 위한 VMware Cloud on AWS 트랜드 따라잡기 "구글 클라우드 AlloyDB 알아보기" 10월 25일 생방송 제조분야 스마트 혁신을 이끄는 AI기반 분석 기술 반도체 인프라 구축을 위한 하이테크 BIM 설계 자동화 웨비나 구글 클라우드 AlloyDB로 데이터베이스 워크로드 혁신하기 데이터와 시뮬레이션 모델을 활용한 건전성 예측관리 솔루션 개발 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
+  </si>
+  <si>
+    <t>중도일보 - 진도군, 제주도 '사후면세점'서 농수특산품 판매·문화관광 홍보 진도군, 제주도 '사후면세점'서 농수특산품 판매·문화관광 홍보 //=$stickSnsGg?&gt; 최종 편집일 : 2022-10-11 홈 기획연재 중도TV 정치행정 경제과학 사회교육 문화 오피니언 스포츠 전국 비주얼 사람들 대학입시 로그인 회원가입 뉴스 전체기사 기획/연재 운세 기획/연재 더보기 스토리가 있는 대전·충남 대학 공간 대전의 아름다운 건축물 얼마나 아니? 대전 Y-zone 프로젝트 여기 찜했슈 대전 더하기 뉴스바나나 거기 그곳 [유난한 식탁] 저는 채식주의자입니다 REE-PORT:친환경 보고서 트렌드일기: MZ읽기 골목시장을 걷다 문화 in, 문화 人 2022 리포트 충청지대 뉴스포커스 여론을 리서치하다 중도초대석 검색에 없는 대전·충남 파워 충청, 판을 바꾸자 도시재생 리포트 2021 지속가능한 문화도시 프로젝트 세종에 살어리랏다 [오류동사진관]다시 보는 충청의 역사 미제사건, 그날의 기억속으로 데이터 in 충청 기획 신천식의 이슈토론 창간70주년 기획 판소리의 원류는 충청도다 운세 오늘의 운세 오늘의 별자리 생년월일 운세 중도TV 전체기사 기획 시·도정소식 현장리포트 신천식의 이슈토론 박하림의 골프스튜디오 골린이 100일만에 필드보내기 정치/행정 6·1 지방선거 대전 충남/내포 지방의회 국회/정당 국정/외교 세종 썰: 솔깃한 이야기 2022 대선 대전의 2030 선대위 누가 있나 경제/과학 더보기 지역경제 건설/부동산 금융/증권 유통/쇼핑 기업/CEO 자동차 취업/창업 대전정부청사 대덕특구 공사·공단 IT/과학 아파트Info 로또 4차 산업 사회/교육 사건/사고 법원/검찰 교육/시험 노동/노사 환경/교통 미담 날씨 국방/안보 이슈&amp;화제 건강/의료 문화 더보기 공연/전시 영화/비디오 문화/출판 여성/생활 건강/의료 여행/축제 문화 일반 사람들 인터뷰 새인물 인사 동정 알림 부고 뉴스 社告 결혼 내방 다문화 신문 사회복지신문 실버라이프 바로잡습니다 오피니언 더보기 사설 독자 칼럼 독자위원회 &amp; 독자위원 칼럼 사외칼럼 세상읽기 여론광장 교단만필 시사오디세이 세상보기 세상속으로 춘하추동 오늘과내일 풍경소리 프리즘 중도시평 편집국에서 염홍철의 아침단상 우난순의 식탐 사이언스칼럼 월요논단 전문인칼럼 목요광장 홍석환의 3분 경영 문화人 칼럼 김선생의 시네레터 D-MZ:청년칼럼 홍키호테 세창밀시 문예공론 장상현의 재미있는 고사성어 알기쉬운 금융상식 문학박사 김우영의 문화산책 스포츠 더보기 한화이글스 축구 농구 배구 골프 생활체육 야구종합/메이저리그 스포츠종합 엘리트체육 대전하나시티즌 바둑 드림인대전 전국 더보기 수도권 부산/영남 충북 광주/호남 강원 천안시 아산시 공주시 보령시 서산시 당진시 논산시 계룡시 금산군 부여군 서천군 청양군 홍성군 예산군 태안군 비주얼 카드뉴스 포토 인포그래픽 대학입시 정시 수시 전국 광주/호남 진도군, 제주도 '사후면세점'서 농수특산품 판매·문화관광 홍보 승인 2018-12-03 07:33 이재평 기자 전남 진도군이 외국인 관광객을 유치하기 위해 '사후면세점'에 진도아리랑 청정 농수산물 판매와 문화관광 홍보를 적극 추진한다.진도군에 따르면 사후면세점은 중국, 베트남, 태국 등 외국인 관광객을 대상으로 하며, 제주국제공항 인근에 '해태 김 박물관'을 최근 개장했다.이를 위해 군은 해외 여행객을 전문으로 하는 여행사 4개소와 업무협약을 지난달 30일 체결하고 청정해역에서 생산된 진도 김, 진도 미역, 진도 울금 등 진도 농수산물을 판매하고 있다.특히 사후면세점 내부에 다양한 홍보 부스를 마련, 진도 신비의 바닷길 축제, 진도개 페스티벌 등 진도군 주요 축제와 운림산방, 세방낙조 등 주요 관광지 등도 함께 홍보하고 있다.사후 면세점인 '해태 김 박물관'은 1386㎡ 면적에 진도 농수산물 판매 매장과 함께 수산물의 우수성을 체험하기 위한 체험 공간 등으로 구성돼 있어 외국인 관광객들로부터 '호평'을 받고 있다.진도군 경제마케팅과 관계자는 "자치단체에서 사후 면세점에 지역의 농수산물을 집중적으로 판매하고 축제와 주요 관광지 등을 홍보하는 사례는 이번이 처음"이라고 말했다.그리고 "2019년 진도대명해양리조트 개장을 앞두고 다양한 관광 상품을 개발하는 동시에 지역의 농수산물을 홍보하고 외국인 관광객을 유치하는 데 힘쓰겠다"고 밝혔다.한편 외국인 관광객이 사후면세점에서 3만원 이상을 구매한 후 출국시 영수증을 세금환급창구에 제시하면 부가가치세와 개별소비세를 돌려받을 수 있다. 면제 한도는 제한이 없다.진도=이재평 기자 ljp3455@ 중도일보(www.joongdo.co.kr), 무단전재 및 수집, 재배포 금지 기자의 다른기사 보기 랭킹뉴스 한국농수산식품유통공사, 이해충돌방지 자문위원 위촉 [정치펀치]상병헌 세종시의장, 성추행 논란 확산 양상 부원건설, 대전 최초 '트리쉐이드' 브랜드아파트 공급 2022 개정 교육과정 놓고 커지는 교육계 갈등 지역대학생에게 직무 체험 제공하는 '청년 뉴리더 양성사업' 축소 여부 촉각 꺾이지 않는 소비자물가 상승률... 한은, 12일 빅스텝 밟을까 골프존, 12일 '신한투자증권 KPGA 코리안투어 2차대회' 개최 [정치펀치] 세종시의회 민주당, 10일 오후 내내 어수선 [장상현의 재미있는 고사성어] 제140강 타초경사(打草驚蛇) 벌써 22대 총선 전초전?… "대전 동구·중구 경쟁 뜨겁다?" 헤드라인 뉴스 우주산업 클러스터 3각체제 추진에 대전시 "환영" 과학기술정보통신부 우주개발진흥실무위원회가 우주산업 클러스터 3각 체제 추진안을 의결하고 연구·인재개발 분야 특화지구를 발표했다. 특화지구 지역은 11월 발표될 예정이지만, 대전시는 우선 환영의 뜻을 밝혔다. 우주 관련 연구 및 인재개발 인프라를 보유하고 있는 만큼 향후 특화지구 지정에 한 발 다가섰다는 입장이다. 우주산업 클러스터 3각 체제는 경남 사천, 전남 고흥과 함께 앞으로 정부의 민간주도 우주산업 육성을 위한 전초기지가 될 예정이다. 과기부는 추가된 연구·인재개발 특화지구는 기존 발사체·위성 특화지구와 차별화된 미래 신산업.. #생물안전 #공용연구시설 #병원제자원 대전에 '생물안전 3등급' 고위험 병원체자원 공용연구시설 생겼다 충남대학교병원(원장 윤환중)은 10월 7일 의생명융합센터에서 '고위험 병원체자원 BL3 공용연구시설' 준공식을 가졌다. &lt;사진&gt; 고위험 병원체자원 공용연구시설은 신종 감염병에 대한 분석과 진단·연구를 공동으로 진행, 기업지원체계를 구축하는 것이 골자다. 이에 따라 대전지역 내 감염병 관련 신약개발연구가 활성화될 것으로 기대된다. 이날 준공식에는 대전시 이석봉 과학부시장을 비롯해 대전시의회 송활섭 운영위원장·박주화 교육위원장, 임헌문 대전테크노파크 원장, 충남대학교병원 윤환중 원장, 대전을지대학교병원 이승훈 의생명과학연구원장, 건양대.. #지역화폐 #온통대전 #캐시백 캐시백 줄어들자 사용자 이탈? "유지냐 폐지냐" 10월 온통대전 운명 결정된다 유지 또는 폐지 갈림길에 선 대전시 지역화폐 온통대전의 운명이 이달 결정된다. 올 연말까지는 추경 예산 투입으로 월 30만 원, 5% 캐시백은 유지되겠지만, 정부 지원 예산이 중단되는 2023년 정책 방향을 결정해야 할 시점이기 때문이다. 폐지를 속단하긴 이르지만 현재까지 관측된 바로는 온통대전 앞날은 '흐림'이다. 이장우 대전시장은 당선 이후 줄곧 소비의 불공정 언급하며 부정적 의견을 피력해 유지 가능성은 낮아 보인다. 문제는 소상공인(자영업자)과 시민 만족도가 높은 정책이다 보니 일방적인 폐지는 시정 지속성을 잃어버린 '주민참여.. 더불어민주당 대전시당 "온통대전 전체업종 매출 증가 긍정적" 실시간 뉴스 7분전한국수자원공사, 건강한 친환경 수돗물 홍보 캠페인 11분전김영환 도지사 증평서 도민과의 대화 1시간전논산시, 백제병원과 24시간 임산부·영유아 응급의료협약 1시간전금산소방서, 소방안전체험장 운영 성공적 마무리 1시간전평생학습도시 재지정평가 금산군 우수 도시 선정 1시간전제40회 금산인삼축제 10일 피날레…역대 최대 103만 명 운집 1시간전옥천 ㈜더조은숲, 취약계층에게 연탄 2000장 나눔 1시간전예산군, 제33회 추사 김정희 선생 추모 전국휘호대회 성료 1시간전예산군, 예산장터 삼국축제에서 나무 나눠주기 행사 추진 1시간전예산 삽교중에서 등굣길 폭력예방 캠페인 펼쳐 1시간전공주교육지원청, 보건·흡연예방 교육 연구회 ? 흡연예방 거리 캠페인 실시 1시간전48년째 명맥 이어온 부여 충화면 백제문화제 전통제례 '눈길' 1시간전공주정보고, 전국청소년 배구대회 '최종 우승' 1시간전공주시, ‘도서관 책 축제’ 오는 15일 개최 1시간전공주시, 조기폐차 및 LPG 화물차 신차구입 지원 추가 신청 전체기사보기아이콘 기획시리즈 판소리의 원류는 충청도다 검색에 없는 대전충남史 중도초대석 Biz &amp; Money 휴먼스토리 드림인대전 대전시티즌 한화이글스 문화이슈 '톡톡' 이성희의 카메라 지난 기획시리즈 정치 [캠페인] 코로나19 극복 응원메시지 충청 총선 2020 총선열전 정치이슈 2017 19대 대통령선거 [19대] 대선주자 SNS 과학벨트 [19대] 대선주자 UCC 6·4 지방선거 제 18대 대통령선거 4·11 총선 후보자 동영상 미리보는 대전 시의회 2010 6·2 전국동시지방선거 2010 6·2 지방선거 출마의변 선택 6·2 지선 여론조사 김대중기자의 정치읽기 총선 당선자에게 듣는다 선택 4.9총선 총선주자 토크토크 선택 2007 大選 4.25 재보선 2차 남북정상회담 5·31 지방선거 6·5 재보선 4·15 총선 경제 생활의 지혜 신상품 [캠페인] 노벨상 응원메세지 빅데이터로 보는 상권분석 물가동향 장바구니 물가 인포그래픽으로 보는 세상 이코노미 줌 In 이경태기자의 부동산Q 세입자라면 꼭 알아두자 오늘의 대전 소셜커머스 알기쉬운 세무상식 주간증시전망 사회 대전 착한 SNS 릴레이 NGO 충남학교신문 미래 핵심역량의 시대 해군 천안함 침몰 北 연평도 포격 4.29 도교육감 선거 12.17 시교육감 선거 당직병원안내 6.25 도교육감 선거 문화 힐링 사자성어는 삶의 이음매 맛있는 주말 우리말OX 펫 book 뉴스 스나이퍼 거기 그곳 알쓸신조 관상톡 실전육아 톡톡톡 슬기로운 육아생활 일반 뉴스 대중음악 오복만땅 만약에 시사용어 이정은 기자의 원룸냥이 게임/웹툰 중국어교실 가요는 삶의 축 아침 山詩 일상탈출 우리동호회 백영주의 명화살롱 인생 사자성어 도시락(樂) 우난순의 필톡 우리문화를 아시나요 연예인실록 오완영시인의 時想 시경 주대환 교수의 생생 생활영어 금주의 핫클릭 5 궁금어사전 뜬금톡 이재복 박사의 한자세상 대한人 송교수의 우리말 이야기 뜬금포 글러벌 중도 이름으로 행복찾기 배워봅시다! 명의를 찾아서 작은콘서트 탁탁탁 즐겨요 충남 충정의 문화유산 종교/학술 오피니언 스포츠돋보기 이홍기의 말씀 세상 기자수첩 우난순의 필톡 문화칼럼 톡톡헬스뷰티 중도칼럼 아침세상 발언대 한마디 최충식 경제통 최충식 칼럼 경찰의 눈 사이언스리뷰 행복시대 월요아침 미디어의 눈 시시각각 문화산책 논단 시론 NGO소리 중도춘추 경제포럼 청풍명월 열린마당 모닝갤러리 의창(醫窓) 시사에세이 시시각각 세설 포토스포츠 엔터테인먼트 데스크시각 포토월드 맥클로이교수의 생활영어 청풍명월 임연희의 커뮤니케이션 주역과 세상 조성남 칼럼 신목민학 여론광장 최경애교수의 생활영어 빵의문화 장미의문화 논어로 푸는 세상 장영우의 뜸부기 장영우의 중도카툰 절기이야기 백마강(연재소설) 손지혜의 아침창가 즐거운 잡학 이런책 저런얘기 김영수의 詩 아침 책갈피 夕佳軒이야기 고충처리인제도 2007 활동상황 나도 한마디 임청산 박사의 만화만상 삶이 있는 아침 중도의 눈 심판자(연재소설) 김우영의 우리말 산책 시로 여는 아침 천둥 사람들 사람들 휴먼 보도자료 만나고 싶었습니다 캐릭터인터뷰 오늘의 소사 동네방네 기획연재 리뉴얼 충청 코로나19 극복! 힘내라 대전! 대전기록프로젝트 부 동 산 박붕준의 방송 타임머신 해외여행 리뷰 특집 최민호 소설-아웃터넷 오늘의 중도일보 유통 자치현장을 찾아서 기 업 금융 재밌는 법률상식 Q&amp;A 계룡로 객원기자의 눈 이현장,이문제 피플 월요포커스 아줌마 전성시대 청춘예찬 여기는 대덕특구 세상은 요지경 금주의 행사 안치홍의 골프세상 [특집] 과학의날 세계 핫이슈 더불어 삶 이제는 바꿉시다 여행 백북스와 함께 읽는 책 이슈 집중취재 손인중 기자의 Rewind 현장 우리동네 부동산 충남, 내고향의 산 명품 강좌를 말한다 여성/종교 창간 61주년 특집 JD 모닝레터 NGO 2012 신년호 특집 중도 60년 희망 60인 인터뷰 창간 60주년 특집 자율ㆍ창의 학교 특색살리기 김프로의 골프119 궁금어 사전 바른품성 5운동 한성일 기자의 성지순례 탐방기 족보 있는 도시 대전 조성남 주필의 스페인 문화산책 한방칼럼 이경태 기자의 세상돋보기 나눔사회 캠페인 365일 36.5도 우리동네 주치의 재미있는 단위 이야기 지영철의 렌즈속 세상 돌까마귀의 둘레산길 창간 60주년 기획대담 알기쉬운 세무상식 日강진 쓰나미 대재앙 손지혜의 통통칼럼 [중도일보60주년]2011새해특집 충청의 올레길 친환경 농산물이 책임진다 2010 세계대백제전 녹색자금 지원사업 현장을 가다 가자!세계문화유산으로 [창간59주년]브랜드NEW충청 [6.25전쟁]끝나지 않은 이야기 당선자에게 듣는다 2010부동산 가이드 글로벌 브랜드로 키우자 중국속의 백제문화 대전개시60년 그현장 그모습 장인의 혼을 찾아서 사랑실은 바른 인성교육 금강리포트 [그린시티]시민 삶을 바꾼다 일본도요산책 [창간58주년]파워풀충청 김대중 前대통령 서거 北, 2차 핵실험 [특별기획]승리의 역사를 가다 노무현 前대통령 서거 2009안면도 국제 꽃박람회 지역현안 단체장에 듣는다 과학이 희망이다 2009부동산 가이드 그때그현장 금요 골프 산이야기 대전을 명품 평생학습도시로 충청현장 이슈 2009 다시뛰는 충청 열려라! 방과후 학교 세계로 가는 충남도 충남 글로벌 예절교육 나는야 논술 짱 English Class 캠퍼스라이프 서해안을 살리자[연중캠페인] 대전 방과후학교 대청호 8경을 찾아서 학교탐방 김명환의 가요세상 충청박물지 대전.충남 개발현장을 가다 교육/대학 계룡대 숭례문 화재 대한민국 교육 大計 서민경제 현장을 가다 선택 4.9총선 實用시대 충청이 바뀐다 주말Fan 와인이야기 학교탐방 2007 충청아젠다 함께사는 공동체 집중취재 대전을 명품도시로 내고장최고 충청아젠다53제 만화세상 깨끗한 대전가꾸기 추석특집 창간56주년 재테크 돼지해 부자됩시다 클린대전 힘모읍시다 2007대선 만인 여론조사 총체적 위기 대전시티즌 한미FTA시대 함께사는사회를만들자 충청경제[economy] 주말매거진[Weekend秀] 작가의 산실 신충청시대를 열자 新 문화도시를 만들자 경제인줌인 비만없는도시를 만들자 대전,이래서좋다 신대동여지도 해체되는 가족사회 6ㆍ5 재보선 누가 뛰나? 선거문화 달라진다 나의도전2004 내고장자랑 추천기사 우주산업 클러스터 3각체제 추진에 대전시 "환영" 대전에 '생물안전 3등급' 고위험 병원체자원 공용연구시설 생겼다 캐시백 줄어들자 사용자 이탈? "유지냐 폐지냐" 10월 온통대전 운명 결정된다 벌써 22대 총선 전초전?… "대전 동구·중구 경쟁 뜨겁다?" 대전시 튀르기예, 우루과이, 가봉과 우호도시 협약 체결 걷고, 쉬며, 노는 '세종축제 2.0'개막 동영상 [영상]대전시립미술관 열린 수장고 개관…백남준 작가 프랙탈 거북선 원형 복원 포토뉴스 2022 세계지방정부연합(UCLG)개막…14일까지 다양한 행사 풍성 갑자기 찾아온 추위에 잔뜩 움츠린 시민들 3년 만에 대면으로 열린 효문화뿌리축제…관람객들로 ‘북적북적’ 대전 오월드 백두산호랑이 3남매 100일 맞아 일반에 공개 인기뉴스 한국농수산식품유통공사, 이해충돌방지 자문위원 위촉 [정치펀치]상병헌 세종시의장, 성추행 논란 확산 양상 부원건설, 대전 최초 '트리쉐이드' 브랜드아파트 공급 2022 개정 교육과정 놓고 커지는 교육계 갈등 지역대학생에게 직무 체험 제공하는 '청년 뉴리더 양성사업' 축소 여부 촉각 회사소개 기자별 기사보기 조직도 찾아오시는 길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 독자투고 중도일보 RSS 중도일보 PDF보기 고충처리인 편집규약 윤리강령 및 기자준칙 제작 윤리강령 광고 윤리강령 판매 윤리강령 청탁금지법 안내 청소년보호정책 원격지원 서울특별시 중구 서소문로 11길 2 효성빌딩 (우) 04515 전화 : 1522-4620  ㅣ  대전광역시 중구 계룡로 832 (우) 34908 전화 : 042-220-1114 회사명 : (주)중도일보사  제호 : 중도일보  인터넷신문 등록번호 : 대전 아00341  등록일자 : 2019-08-16  발행인 : 김원식  편집인 : 유영돈  청소년보호책임자 : 김덕기 Copyright by 중도일보 Co.,Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도관광협회 ‘탐나오’, 웹 이노베이션 대상 최우수상 수상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회 ‘탐나오’, 웹 이노베이션 대상 최우수상 수상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 ‘탐나오’, 웹 이노베이션 대상 최우수상 수상 문유미 기자 승인 2018.12.13 14:53 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 김영진)가 운영하는 제주여행 종합쇼핑몰 ‘탐나오’는 13일 서울 롯데호텔월드에서 열린 ‘제15회 대한민국 웹 이노베이션 대상 시상식’에서 여행쇼핑물 분야 최우수상을 수상했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 ‘탐나오’, 대한민국 인터넷대상 특별상 수상 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회 ‘탐나오’, 대한민국 인터넷대상 특별상 수상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 ‘탐나오’, 대한민국 인터넷대상 특별상 수상 문유미 기자 승인 2018.12.03 17:32 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 김영진)가 운영하는 제주여행 종합쇼핑몰 ‘탐나오’가 3일 중소기업중앙회에서 과학기술정보통신부 주최로 열린 ‘제13회 대한민국 인터넷 대상’ 시상식에서 사회진흥부문 ICT연합회장상을 수상했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -434,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -477,6 +588,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -486,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +666,221 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
